--- a/code_generate_figures/data/ranks_all_FragPipe_TMT_ensemble_topk.xlsx
+++ b/code_generate_figures/data/ranks_all_FragPipe_TMT_ensemble_topk.xlsx
@@ -962,19 +962,19 @@
         <v>0.8090653</v>
       </c>
       <c r="I2" t="n">
-        <v>0.79428695</v>
+        <v>0.7885364</v>
       </c>
       <c r="J2" t="n">
         <v>11</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="L2" t="n">
         <v>0.907338753333333</v>
       </c>
       <c r="M2" t="n">
-        <v>0.91488075</v>
+        <v>0.9159912</v>
       </c>
       <c r="N2" t="n">
         <v>12</v>
@@ -986,43 +986,43 @@
         <v>0.92906686</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9412983</v>
+        <v>0.9428095</v>
       </c>
       <c r="R2" t="n">
         <v>9</v>
       </c>
       <c r="S2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T2" t="n">
         <v>0.87526566</v>
       </c>
       <c r="U2" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V2" t="n">
         <v>21</v>
       </c>
       <c r="W2" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
         <v>0.78974572</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z2" t="n">
         <v>60</v>
       </c>
       <c r="AA2" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
         <v>22.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>18.2</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="3">
@@ -1051,67 +1051,67 @@
         <v>0.80883304</v>
       </c>
       <c r="I3" t="n">
-        <v>0.79400635</v>
+        <v>0.7885344</v>
       </c>
       <c r="J3" t="n">
         <v>26</v>
       </c>
       <c r="K3" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L3" t="n">
         <v>0.907288666666667</v>
       </c>
       <c r="M3" t="n">
-        <v>0.91481085</v>
+        <v>0.915987</v>
       </c>
       <c r="N3" t="n">
         <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="P3" t="n">
         <v>0.928965333333333</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9412973</v>
+        <v>0.9428095</v>
       </c>
       <c r="R3" t="n">
         <v>33</v>
       </c>
       <c r="S3" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="T3" t="n">
         <v>0.875267026666667</v>
       </c>
       <c r="U3" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V3" t="n">
         <v>18</v>
       </c>
       <c r="W3" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
         <v>0.789701633333333</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z3" t="n">
         <v>73</v>
       </c>
       <c r="AA3" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="AB3" t="n">
         <v>35.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>29.4</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="4">
@@ -1140,67 +1140,67 @@
         <v>0.808886206666667</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7940528</v>
+        <v>0.7885344</v>
       </c>
       <c r="J4" t="n">
         <v>21</v>
       </c>
       <c r="K4" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="L4" t="n">
         <v>0.90731232</v>
       </c>
       <c r="M4" t="n">
-        <v>0.91484495</v>
+        <v>0.915987</v>
       </c>
       <c r="N4" t="n">
         <v>19</v>
       </c>
       <c r="O4" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P4" t="n">
         <v>0.928991786666667</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9412972</v>
+        <v>0.9428095</v>
       </c>
       <c r="R4" t="n">
         <v>23</v>
       </c>
       <c r="S4" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="T4" t="n">
         <v>0.87528302</v>
       </c>
       <c r="U4" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V4" t="n">
         <v>9</v>
       </c>
       <c r="W4" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
         <v>0.789723493333333</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z4" t="n">
         <v>67</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="AB4" t="n">
         <v>27.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>25.8</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="5">
@@ -1229,19 +1229,19 @@
         <v>0.8090663</v>
       </c>
       <c r="I5" t="n">
-        <v>0.79428695</v>
+        <v>0.7885364</v>
       </c>
       <c r="J5" t="n">
         <v>10</v>
       </c>
       <c r="K5" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="L5" t="n">
         <v>0.907337546666667</v>
       </c>
       <c r="M5" t="n">
-        <v>0.91488055</v>
+        <v>0.91599</v>
       </c>
       <c r="N5" t="n">
         <v>14</v>
@@ -1253,43 +1253,43 @@
         <v>0.929065393333333</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.941296</v>
+        <v>0.9428058</v>
       </c>
       <c r="R5" t="n">
         <v>10</v>
       </c>
       <c r="S5" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="T5" t="n">
         <v>0.87526566</v>
       </c>
       <c r="U5" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V5" t="n">
         <v>22</v>
       </c>
       <c r="W5" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
         <v>0.78974572</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z5" t="n">
         <v>61</v>
       </c>
       <c r="AA5" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="AB5" t="n">
         <v>23.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>25.8</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="6">
@@ -1318,67 +1318,67 @@
         <v>0.808840886666667</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7940053</v>
+        <v>0.7885323</v>
       </c>
       <c r="J6" t="n">
         <v>24</v>
       </c>
       <c r="K6" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="L6" t="n">
         <v>0.907291793333333</v>
       </c>
       <c r="M6" t="n">
-        <v>0.91481125</v>
+        <v>0.9159866</v>
       </c>
       <c r="N6" t="n">
         <v>25</v>
       </c>
       <c r="O6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P6" t="n">
         <v>0.92896818</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.94129775</v>
+        <v>0.9428106</v>
       </c>
       <c r="R6" t="n">
         <v>31</v>
       </c>
       <c r="S6" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="T6" t="n">
         <v>0.875267026666667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V6" t="n">
         <v>19</v>
       </c>
       <c r="W6" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="X6" t="n">
         <v>0.789701633333333</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z6" t="n">
         <v>74</v>
       </c>
       <c r="AA6" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="AB6" t="n">
         <v>34.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>29.2</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="7">
@@ -1407,67 +1407,67 @@
         <v>0.808872466666667</v>
       </c>
       <c r="I7" t="n">
-        <v>0.79404875</v>
+        <v>0.7885344</v>
       </c>
       <c r="J7" t="n">
         <v>23</v>
       </c>
       <c r="K7" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="L7" t="n">
         <v>0.907303433333333</v>
       </c>
       <c r="M7" t="n">
-        <v>0.91487625</v>
+        <v>0.915987</v>
       </c>
       <c r="N7" t="n">
         <v>20</v>
       </c>
       <c r="O7" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="P7" t="n">
         <v>0.928979593333333</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9412972</v>
+        <v>0.9428095</v>
       </c>
       <c r="R7" t="n">
         <v>29</v>
       </c>
       <c r="S7" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="T7" t="n">
         <v>0.875267026666667</v>
       </c>
       <c r="U7" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V7" t="n">
         <v>20</v>
       </c>
       <c r="W7" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
         <v>0.789701633333333</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z7" t="n">
         <v>75</v>
       </c>
       <c r="AA7" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="AB7" t="n">
         <v>33.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>26.6</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="8">
@@ -1496,19 +1496,19 @@
         <v>0.809072226666667</v>
       </c>
       <c r="I8" t="n">
-        <v>0.79428695</v>
+        <v>0.7885364</v>
       </c>
       <c r="J8" t="n">
         <v>9</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="L8" t="n">
         <v>0.90732938</v>
       </c>
       <c r="M8" t="n">
-        <v>0.91488035</v>
+        <v>0.91599</v>
       </c>
       <c r="N8" t="n">
         <v>18</v>
@@ -1520,43 +1520,43 @@
         <v>0.92906116</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.941296</v>
+        <v>0.9428058</v>
       </c>
       <c r="R8" t="n">
         <v>11</v>
       </c>
       <c r="S8" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="T8" t="n">
         <v>0.87525156</v>
       </c>
       <c r="U8" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V8" t="n">
         <v>38</v>
       </c>
       <c r="W8" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
         <v>0.789737666666667</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z8" t="n">
         <v>63</v>
       </c>
       <c r="AA8" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="AB8" t="n">
         <v>27.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>27.6</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="9">
@@ -1585,67 +1585,67 @@
         <v>0.808809286666667</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7939286</v>
+        <v>0.7885323</v>
       </c>
       <c r="J9" t="n">
         <v>29</v>
       </c>
       <c r="K9" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L9" t="n">
         <v>0.907279086666667</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9147997</v>
+        <v>0.9159866</v>
       </c>
       <c r="N9" t="n">
         <v>28</v>
       </c>
       <c r="O9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P9" t="n">
         <v>0.928961753333333</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.94129775</v>
+        <v>0.9428106</v>
       </c>
       <c r="R9" t="n">
         <v>36</v>
       </c>
       <c r="S9" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="T9" t="n">
         <v>0.8752529</v>
       </c>
       <c r="U9" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V9" t="n">
         <v>36</v>
       </c>
       <c r="W9" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
         <v>0.78969358</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z9" t="n">
         <v>76</v>
       </c>
       <c r="AA9" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>34.4</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="10">
@@ -1674,67 +1674,67 @@
         <v>0.808875306666667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.79403865</v>
+        <v>0.7885344</v>
       </c>
       <c r="J10" t="n">
         <v>22</v>
       </c>
       <c r="K10" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="L10" t="n">
         <v>0.907299873333333</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9148431</v>
+        <v>0.915987</v>
       </c>
       <c r="N10" t="n">
         <v>22</v>
       </c>
       <c r="O10" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="P10" t="n">
         <v>0.92898346</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.9412972</v>
+        <v>0.9428095</v>
       </c>
       <c r="R10" t="n">
         <v>27</v>
       </c>
       <c r="S10" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T10" t="n">
         <v>0.8752529</v>
       </c>
       <c r="U10" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V10" t="n">
         <v>37</v>
       </c>
       <c r="W10" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
         <v>0.78969358</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z10" t="n">
         <v>77</v>
       </c>
       <c r="AA10" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="AB10" t="n">
         <v>37</v>
       </c>
       <c r="AC10" t="n">
-        <v>29.4</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="11">
@@ -1763,19 +1763,19 @@
         <v>0.808816086666667</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7941901</v>
+        <v>0.7885385</v>
       </c>
       <c r="J11" t="n">
         <v>27</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L11" t="n">
         <v>0.90721426</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9145025</v>
+        <v>0.9152343</v>
       </c>
       <c r="N11" t="n">
         <v>35</v>
@@ -1787,43 +1787,43 @@
         <v>0.928992133333333</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9412973</v>
+        <v>0.9428058</v>
       </c>
       <c r="R11" t="n">
         <v>22</v>
       </c>
       <c r="S11" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="T11" t="n">
         <v>0.875281526666667</v>
       </c>
       <c r="U11" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V11" t="n">
         <v>10</v>
       </c>
       <c r="W11" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
         <v>0.789795573333333</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z11" t="n">
         <v>42</v>
       </c>
       <c r="AA11" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="AB11" t="n">
         <v>27.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>33</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="12">
@@ -1852,67 +1852,67 @@
         <v>0.80877084</v>
       </c>
       <c r="I12" t="n">
-        <v>0.79375695</v>
+        <v>0.7885323</v>
       </c>
       <c r="J12" t="n">
         <v>32</v>
       </c>
       <c r="K12" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L12" t="n">
         <v>0.907259726666667</v>
       </c>
       <c r="M12" t="n">
-        <v>0.91479365</v>
+        <v>0.915987</v>
       </c>
       <c r="N12" t="n">
         <v>33</v>
       </c>
       <c r="O12" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="P12" t="n">
         <v>0.92894258</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.94129785</v>
+        <v>0.9428106</v>
       </c>
       <c r="R12" t="n">
         <v>46</v>
       </c>
       <c r="S12" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="T12" t="n">
         <v>0.87526862</v>
       </c>
       <c r="U12" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V12" t="n">
         <v>16</v>
       </c>
       <c r="W12" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="X12" t="n">
         <v>0.789715746666667</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z12" t="n">
         <v>70</v>
       </c>
       <c r="AA12" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="AB12" t="n">
         <v>39.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>36.4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1941,67 +1941,67 @@
         <v>0.808893326666667</v>
       </c>
       <c r="I13" t="n">
-        <v>0.79403965</v>
+        <v>0.7885364</v>
       </c>
       <c r="J13" t="n">
         <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="L13" t="n">
         <v>0.90729384</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9148108</v>
+        <v>0.9159883</v>
       </c>
       <c r="N13" t="n">
         <v>24</v>
       </c>
       <c r="O13" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P13" t="n">
         <v>0.92899766</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.94129765</v>
+        <v>0.9428095</v>
       </c>
       <c r="R13" t="n">
         <v>20</v>
       </c>
       <c r="S13" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="T13" t="n">
         <v>0.875299906666667</v>
       </c>
       <c r="U13" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V13" t="n">
         <v>4</v>
       </c>
       <c r="W13" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="X13" t="n">
         <v>0.78976204</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z13" t="n">
         <v>54</v>
       </c>
       <c r="AA13" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
         <v>24.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>31.2</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="14">
@@ -2030,67 +2030,67 @@
         <v>0.808710013333333</v>
       </c>
       <c r="I14" t="n">
-        <v>0.79401445</v>
+        <v>0.7885385</v>
       </c>
       <c r="J14" t="n">
         <v>38</v>
       </c>
       <c r="K14" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L14" t="n">
         <v>0.907166493333333</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9142208</v>
+        <v>0.9146731</v>
       </c>
       <c r="N14" t="n">
         <v>36</v>
       </c>
       <c r="O14" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P14" t="n">
         <v>0.928966146666667</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.94129835</v>
+        <v>0.9428058</v>
       </c>
       <c r="R14" t="n">
         <v>32</v>
       </c>
       <c r="S14" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="T14" t="n">
         <v>0.875276266666667</v>
       </c>
       <c r="U14" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V14" t="n">
         <v>11</v>
       </c>
       <c r="W14" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="X14" t="n">
         <v>0.789801373333333</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z14" t="n">
         <v>39</v>
       </c>
       <c r="AA14" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
         <v>31.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>31</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="15">
@@ -2119,67 +2119,67 @@
         <v>0.8087706</v>
       </c>
       <c r="I15" t="n">
-        <v>0.79375695</v>
+        <v>0.7885323</v>
       </c>
       <c r="J15" t="n">
         <v>33</v>
       </c>
       <c r="K15" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L15" t="n">
         <v>0.907259673333333</v>
       </c>
       <c r="M15" t="n">
-        <v>0.91479365</v>
+        <v>0.915987</v>
       </c>
       <c r="N15" t="n">
         <v>34</v>
       </c>
       <c r="O15" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="P15" t="n">
         <v>0.928942573333333</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.94129785</v>
+        <v>0.9428106</v>
       </c>
       <c r="R15" t="n">
         <v>47</v>
       </c>
       <c r="S15" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="T15" t="n">
         <v>0.87526862</v>
       </c>
       <c r="U15" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V15" t="n">
         <v>17</v>
       </c>
       <c r="W15" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="X15" t="n">
         <v>0.789715746666667</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z15" t="n">
         <v>71</v>
       </c>
       <c r="AA15" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="AB15" t="n">
         <v>40.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>38.2</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="16">
@@ -2208,67 +2208,67 @@
         <v>0.80892288</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7940356</v>
+        <v>0.7885364</v>
       </c>
       <c r="J16" t="n">
         <v>19</v>
       </c>
       <c r="K16" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="L16" t="n">
         <v>0.907303173333333</v>
       </c>
       <c r="M16" t="n">
-        <v>0.91480785</v>
+        <v>0.9159891</v>
       </c>
       <c r="N16" t="n">
         <v>21</v>
       </c>
       <c r="O16" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="P16" t="n">
         <v>0.929011053333333</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.94129795</v>
+        <v>0.9428095</v>
       </c>
       <c r="R16" t="n">
         <v>19</v>
       </c>
       <c r="S16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T16" t="n">
         <v>0.875299906666667</v>
       </c>
       <c r="U16" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V16" t="n">
         <v>5</v>
       </c>
       <c r="W16" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="X16" t="n">
         <v>0.78976204</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z16" t="n">
         <v>55</v>
       </c>
       <c r="AA16" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AB16" t="n">
         <v>23.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>31.6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -2297,67 +2297,67 @@
         <v>0.808712166666667</v>
       </c>
       <c r="I17" t="n">
-        <v>0.79401445</v>
+        <v>0.7885385</v>
       </c>
       <c r="J17" t="n">
         <v>36</v>
       </c>
       <c r="K17" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L17" t="n">
         <v>0.90716526</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9142114</v>
+        <v>0.9146797</v>
       </c>
       <c r="N17" t="n">
         <v>37</v>
       </c>
       <c r="O17" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P17" t="n">
         <v>0.928965313333333</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.94129835</v>
+        <v>0.9428058</v>
       </c>
       <c r="R17" t="n">
         <v>34</v>
       </c>
       <c r="S17" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="T17" t="n">
         <v>0.875276266666667</v>
       </c>
       <c r="U17" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V17" t="n">
         <v>12</v>
       </c>
       <c r="W17" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="X17" t="n">
         <v>0.789801373333333</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z17" t="n">
         <v>40</v>
       </c>
       <c r="AA17" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="AB17" t="n">
         <v>31.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>32.8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -2386,19 +2386,19 @@
         <v>0.80864624</v>
       </c>
       <c r="I18" t="n">
-        <v>0.79342275</v>
+        <v>0.7885261</v>
       </c>
       <c r="J18" t="n">
         <v>41</v>
       </c>
       <c r="K18" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L18" t="n">
         <v>0.907044813333333</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9145164</v>
+        <v>0.9154321</v>
       </c>
       <c r="N18" t="n">
         <v>52</v>
@@ -2410,43 +2410,43 @@
         <v>0.928746913333333</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.94129525</v>
+        <v>0.9428106</v>
       </c>
       <c r="R18" t="n">
         <v>52</v>
       </c>
       <c r="S18" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="T18" t="n">
         <v>0.87524736</v>
       </c>
       <c r="U18" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V18" t="n">
         <v>39</v>
       </c>
       <c r="W18" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="X18" t="n">
         <v>0.789644713333333</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z18" t="n">
         <v>78</v>
       </c>
       <c r="AA18" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="AB18" t="n">
         <v>52.4</v>
       </c>
       <c r="AC18" t="n">
-        <v>46</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="19">
@@ -2475,67 +2475,67 @@
         <v>0.80894832</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7940215</v>
+        <v>0.7885364</v>
       </c>
       <c r="J19" t="n">
         <v>14</v>
       </c>
       <c r="K19" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="L19" t="n">
         <v>0.907329926666667</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9148145</v>
+        <v>0.9159883</v>
       </c>
       <c r="N19" t="n">
         <v>17</v>
       </c>
       <c r="O19" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="P19" t="n">
         <v>0.9290338</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.94129765</v>
+        <v>0.9428095</v>
       </c>
       <c r="R19" t="n">
         <v>12</v>
       </c>
       <c r="S19" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="T19" t="n">
         <v>0.875328126666667</v>
       </c>
       <c r="U19" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V19" t="n">
         <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="X19" t="n">
         <v>0.789805413333333</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z19" t="n">
         <v>37</v>
       </c>
       <c r="AA19" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="AB19" t="n">
         <v>16.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>33.4</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="20">
@@ -2564,67 +2564,67 @@
         <v>0.808711733333333</v>
       </c>
       <c r="I20" t="n">
-        <v>0.79401445</v>
+        <v>0.7885385</v>
       </c>
       <c r="J20" t="n">
         <v>37</v>
       </c>
       <c r="K20" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L20" t="n">
         <v>0.907165166666667</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9142114</v>
+        <v>0.9146797</v>
       </c>
       <c r="N20" t="n">
         <v>38</v>
       </c>
       <c r="O20" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P20" t="n">
         <v>0.928965266666667</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.94129825</v>
+        <v>0.9428058</v>
       </c>
       <c r="R20" t="n">
         <v>35</v>
       </c>
       <c r="S20" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="T20" t="n">
         <v>0.875276266666667</v>
       </c>
       <c r="U20" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V20" t="n">
         <v>13</v>
       </c>
       <c r="W20" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="X20" t="n">
         <v>0.789801373333333</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z20" t="n">
         <v>41</v>
       </c>
       <c r="AA20" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
         <v>32.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>36.4</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="21">
@@ -2653,19 +2653,19 @@
         <v>0.80865072</v>
       </c>
       <c r="I21" t="n">
-        <v>0.79342885</v>
+        <v>0.7885261</v>
       </c>
       <c r="J21" t="n">
         <v>39</v>
       </c>
       <c r="K21" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L21" t="n">
         <v>0.907046246666667</v>
       </c>
       <c r="M21" t="n">
-        <v>0.91451615</v>
+        <v>0.9154305</v>
       </c>
       <c r="N21" t="n">
         <v>50</v>
@@ -2677,43 +2677,43 @@
         <v>0.92874748</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.94129525</v>
+        <v>0.9428106</v>
       </c>
       <c r="R21" t="n">
         <v>51</v>
       </c>
       <c r="S21" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="T21" t="n">
         <v>0.87524736</v>
       </c>
       <c r="U21" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V21" t="n">
         <v>40</v>
       </c>
       <c r="W21" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="X21" t="n">
         <v>0.789644713333333</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z21" t="n">
         <v>79</v>
       </c>
       <c r="AA21" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="AB21" t="n">
         <v>51.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>47.2</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="22">
@@ -2742,67 +2742,67 @@
         <v>0.8089367</v>
       </c>
       <c r="I22" t="n">
-        <v>0.79400435</v>
+        <v>0.7885344</v>
       </c>
       <c r="J22" t="n">
         <v>18</v>
       </c>
       <c r="K22" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="L22" t="n">
         <v>0.9073379</v>
       </c>
       <c r="M22" t="n">
-        <v>0.9148468</v>
+        <v>0.915987</v>
       </c>
       <c r="N22" t="n">
         <v>13</v>
       </c>
       <c r="O22" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="P22" t="n">
         <v>0.929019346666667</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.9412972</v>
+        <v>0.9428095</v>
       </c>
       <c r="R22" t="n">
         <v>18</v>
       </c>
       <c r="S22" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="T22" t="n">
         <v>0.87529684</v>
       </c>
       <c r="U22" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V22" t="n">
         <v>6</v>
       </c>
       <c r="W22" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="X22" t="n">
         <v>0.78975912</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z22" t="n">
         <v>57</v>
       </c>
       <c r="AA22" t="n">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="AB22" t="n">
         <v>22.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>35.6</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="23">
@@ -2831,19 +2831,19 @@
         <v>0.8086408</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7939983</v>
+        <v>0.7885385</v>
       </c>
       <c r="J23" t="n">
         <v>48</v>
       </c>
       <c r="K23" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L23" t="n">
         <v>0.907147813333333</v>
       </c>
       <c r="M23" t="n">
-        <v>0.91409645</v>
+        <v>0.9144498</v>
       </c>
       <c r="N23" t="n">
         <v>47</v>
@@ -2855,43 +2855,43 @@
         <v>0.92895636</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.94129825</v>
+        <v>0.9428058</v>
       </c>
       <c r="R23" t="n">
         <v>37</v>
       </c>
       <c r="S23" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="T23" t="n">
         <v>0.875262213333333</v>
       </c>
       <c r="U23" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V23" t="n">
         <v>23</v>
       </c>
       <c r="W23" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="X23" t="n">
         <v>0.789793306666667</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z23" t="n">
         <v>43</v>
       </c>
       <c r="AA23" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="AB23" t="n">
         <v>39.6</v>
       </c>
       <c r="AC23" t="n">
-        <v>40.4</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="24">
@@ -2920,19 +2920,19 @@
         <v>0.80865072</v>
       </c>
       <c r="I24" t="n">
-        <v>0.79342885</v>
+        <v>0.7885261</v>
       </c>
       <c r="J24" t="n">
         <v>40</v>
       </c>
       <c r="K24" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L24" t="n">
         <v>0.907046246666667</v>
       </c>
       <c r="M24" t="n">
-        <v>0.91451615</v>
+        <v>0.9154305</v>
       </c>
       <c r="N24" t="n">
         <v>51</v>
@@ -2944,43 +2944,43 @@
         <v>0.928747493333333</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.94129525</v>
+        <v>0.9428106</v>
       </c>
       <c r="R24" t="n">
         <v>50</v>
       </c>
       <c r="S24" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="T24" t="n">
         <v>0.87524736</v>
       </c>
       <c r="U24" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V24" t="n">
         <v>41</v>
       </c>
       <c r="W24" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="X24" t="n">
         <v>0.789644713333333</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z24" t="n">
         <v>80</v>
       </c>
       <c r="AA24" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="AB24" t="n">
         <v>52.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -3009,67 +3009,67 @@
         <v>0.808961286666667</v>
       </c>
       <c r="I25" t="n">
-        <v>0.79397705</v>
+        <v>0.7885364</v>
       </c>
       <c r="J25" t="n">
         <v>12</v>
       </c>
       <c r="K25" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>0.907331846666667</v>
       </c>
       <c r="M25" t="n">
-        <v>0.9148145</v>
+        <v>0.9159883</v>
       </c>
       <c r="N25" t="n">
         <v>16</v>
       </c>
       <c r="O25" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="P25" t="n">
         <v>0.929031506666667</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.94129765</v>
+        <v>0.9428095</v>
       </c>
       <c r="R25" t="n">
         <v>13</v>
       </c>
       <c r="S25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T25" t="n">
         <v>0.875328126666667</v>
       </c>
       <c r="U25" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V25" t="n">
         <v>3</v>
       </c>
       <c r="W25" t="n">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="X25" t="n">
         <v>0.789805413333333</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z25" t="n">
         <v>38</v>
       </c>
       <c r="AA25" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="AB25" t="n">
         <v>16.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>39.4</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="26">
@@ -3098,19 +3098,19 @@
         <v>0.8086408</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7939983</v>
+        <v>0.7885385</v>
       </c>
       <c r="J26" t="n">
         <v>49</v>
       </c>
       <c r="K26" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="L26" t="n">
         <v>0.907148633333333</v>
       </c>
       <c r="M26" t="n">
-        <v>0.91410305</v>
+        <v>0.914463</v>
       </c>
       <c r="N26" t="n">
         <v>45</v>
@@ -3122,43 +3122,43 @@
         <v>0.92895598</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.94129825</v>
+        <v>0.9428058</v>
       </c>
       <c r="R26" t="n">
         <v>44</v>
       </c>
       <c r="S26" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="T26" t="n">
         <v>0.875262213333333</v>
       </c>
       <c r="U26" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V26" t="n">
         <v>24</v>
       </c>
       <c r="W26" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="X26" t="n">
         <v>0.789793306666667</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z26" t="n">
         <v>44</v>
       </c>
       <c r="AA26" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="AB26" t="n">
         <v>41.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>40.4</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="27">
@@ -3187,7 +3187,7 @@
         <v>0.808600646666667</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7933844</v>
+        <v>0.7885261</v>
       </c>
       <c r="J27" t="n">
         <v>51</v>
@@ -3199,7 +3199,7 @@
         <v>0.90701932</v>
       </c>
       <c r="M27" t="n">
-        <v>0.9143946</v>
+        <v>0.9151874</v>
       </c>
       <c r="N27" t="n">
         <v>53</v>
@@ -3211,43 +3211,43 @@
         <v>0.928694406666667</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.94129525</v>
+        <v>0.9428106</v>
       </c>
       <c r="R27" t="n">
         <v>53</v>
       </c>
       <c r="S27" t="n">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="T27" t="n">
         <v>0.87523048</v>
       </c>
       <c r="U27" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V27" t="n">
         <v>45</v>
       </c>
       <c r="W27" t="n">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="X27" t="n">
         <v>0.789606106666667</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z27" t="n">
         <v>81</v>
       </c>
       <c r="AA27" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="AB27" t="n">
         <v>56.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>51.2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -3276,67 +3276,67 @@
         <v>0.808944026666667</v>
       </c>
       <c r="I28" t="n">
-        <v>0.79392155</v>
+        <v>0.7885344</v>
       </c>
       <c r="J28" t="n">
         <v>16</v>
       </c>
       <c r="K28" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L28" t="n">
         <v>0.907337166666667</v>
       </c>
       <c r="M28" t="n">
-        <v>0.91482465</v>
+        <v>0.915987</v>
       </c>
       <c r="N28" t="n">
         <v>15</v>
       </c>
       <c r="O28" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P28" t="n">
         <v>0.929021313333333</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.9412972</v>
+        <v>0.9428095</v>
       </c>
       <c r="R28" t="n">
         <v>16</v>
       </c>
       <c r="S28" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="T28" t="n">
         <v>0.87529684</v>
       </c>
       <c r="U28" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V28" t="n">
         <v>7</v>
       </c>
       <c r="W28" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="X28" t="n">
         <v>0.78975912</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z28" t="n">
         <v>58</v>
       </c>
       <c r="AA28" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="AB28" t="n">
         <v>22.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>42.4</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="29">
@@ -3365,19 +3365,19 @@
         <v>0.8086408</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7939983</v>
+        <v>0.7885385</v>
       </c>
       <c r="J29" t="n">
         <v>50</v>
       </c>
       <c r="K29" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L29" t="n">
         <v>0.907148633333333</v>
       </c>
       <c r="M29" t="n">
-        <v>0.91410305</v>
+        <v>0.914463</v>
       </c>
       <c r="N29" t="n">
         <v>46</v>
@@ -3389,43 +3389,43 @@
         <v>0.92895598</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.94129825</v>
+        <v>0.9428058</v>
       </c>
       <c r="R29" t="n">
         <v>45</v>
       </c>
       <c r="S29" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="T29" t="n">
         <v>0.875262213333333</v>
       </c>
       <c r="U29" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V29" t="n">
         <v>25</v>
       </c>
       <c r="W29" t="n">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="X29" t="n">
         <v>0.789793306666667</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z29" t="n">
         <v>45</v>
       </c>
       <c r="AA29" t="n">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="AB29" t="n">
         <v>42.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>42.2</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="30">
@@ -3454,19 +3454,19 @@
         <v>0.808586386666667</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7932754</v>
+        <v>0.7885261</v>
       </c>
       <c r="J30" t="n">
         <v>54</v>
       </c>
       <c r="K30" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L30" t="n">
         <v>0.907011906666667</v>
       </c>
       <c r="M30" t="n">
-        <v>0.9143917</v>
+        <v>0.9151816</v>
       </c>
       <c r="N30" t="n">
         <v>56</v>
@@ -3478,43 +3478,43 @@
         <v>0.92868882</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.94129525</v>
+        <v>0.9428106</v>
       </c>
       <c r="R30" t="n">
         <v>56</v>
       </c>
       <c r="S30" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="T30" t="n">
         <v>0.87523048</v>
       </c>
       <c r="U30" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V30" t="n">
         <v>46</v>
       </c>
       <c r="W30" t="n">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="X30" t="n">
         <v>0.789606106666667</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z30" t="n">
         <v>82</v>
       </c>
       <c r="AA30" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AB30" t="n">
         <v>58.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>53.6</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="31">
@@ -3543,67 +3543,67 @@
         <v>0.80895262</v>
       </c>
       <c r="I31" t="n">
-        <v>0.79393365</v>
+        <v>0.7885344</v>
       </c>
       <c r="J31" t="n">
         <v>13</v>
       </c>
       <c r="K31" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L31" t="n">
         <v>0.907343153333333</v>
       </c>
       <c r="M31" t="n">
-        <v>0.9148369</v>
+        <v>0.9159895</v>
       </c>
       <c r="N31" t="n">
         <v>11</v>
       </c>
       <c r="O31" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="P31" t="n">
         <v>0.9290227</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.94129785</v>
+        <v>0.9428095</v>
       </c>
       <c r="R31" t="n">
         <v>14</v>
       </c>
       <c r="S31" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T31" t="n">
         <v>0.87529684</v>
       </c>
       <c r="U31" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V31" t="n">
         <v>8</v>
       </c>
       <c r="W31" t="n">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="X31" t="n">
         <v>0.78975912</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z31" t="n">
         <v>59</v>
       </c>
       <c r="AA31" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="AB31" t="n">
         <v>21</v>
       </c>
       <c r="AC31" t="n">
-        <v>40</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="32">
@@ -3632,19 +3632,19 @@
         <v>0.808641246666667</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7939983</v>
+        <v>0.7885385</v>
       </c>
       <c r="J32" t="n">
         <v>42</v>
       </c>
       <c r="K32" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="L32" t="n">
         <v>0.907148813333333</v>
       </c>
       <c r="M32" t="n">
-        <v>0.91410305</v>
+        <v>0.914463</v>
       </c>
       <c r="N32" t="n">
         <v>39</v>
@@ -3656,43 +3656,43 @@
         <v>0.928956086666667</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.94129835</v>
+        <v>0.9428058</v>
       </c>
       <c r="R32" t="n">
         <v>38</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="T32" t="n">
         <v>0.875262213333333</v>
       </c>
       <c r="U32" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V32" t="n">
         <v>26</v>
       </c>
       <c r="W32" t="n">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="X32" t="n">
         <v>0.789793306666667</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z32" t="n">
         <v>46</v>
       </c>
       <c r="AA32" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="AB32" t="n">
         <v>38.2</v>
       </c>
       <c r="AC32" t="n">
-        <v>41.4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -3721,19 +3721,19 @@
         <v>0.808588553333333</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7932754</v>
+        <v>0.7885261</v>
       </c>
       <c r="J33" t="n">
         <v>53</v>
       </c>
       <c r="K33" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L33" t="n">
         <v>0.907012673333333</v>
       </c>
       <c r="M33" t="n">
-        <v>0.91439295</v>
+        <v>0.9151841</v>
       </c>
       <c r="N33" t="n">
         <v>54</v>
@@ -3745,43 +3745,43 @@
         <v>0.928689186666667</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.94129525</v>
+        <v>0.9428106</v>
       </c>
       <c r="R33" t="n">
         <v>54</v>
       </c>
       <c r="S33" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="T33" t="n">
         <v>0.87523048</v>
       </c>
       <c r="U33" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V33" t="n">
         <v>47</v>
       </c>
       <c r="W33" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="X33" t="n">
         <v>0.789606106666667</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z33" t="n">
         <v>83</v>
       </c>
       <c r="AA33" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="AB33" t="n">
         <v>58.2</v>
       </c>
       <c r="AC33" t="n">
-        <v>55</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="34">
@@ -3810,7 +3810,7 @@
         <v>0.808945433333333</v>
       </c>
       <c r="I34" t="n">
-        <v>0.79391955</v>
+        <v>0.7885344</v>
       </c>
       <c r="J34" t="n">
         <v>15</v>
@@ -3822,55 +3822,55 @@
         <v>0.90734738</v>
       </c>
       <c r="M34" t="n">
-        <v>0.91483715</v>
+        <v>0.91599</v>
       </c>
       <c r="N34" t="n">
         <v>10</v>
       </c>
       <c r="O34" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="P34" t="n">
         <v>0.9290217</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.94129795</v>
+        <v>0.9428095</v>
       </c>
       <c r="R34" t="n">
         <v>15</v>
       </c>
       <c r="S34" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="T34" t="n">
         <v>0.875252913333333</v>
       </c>
       <c r="U34" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V34" t="n">
         <v>34</v>
       </c>
       <c r="W34" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="X34" t="n">
         <v>0.78972084</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z34" t="n">
         <v>68</v>
       </c>
       <c r="AA34" t="n">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="AB34" t="n">
         <v>28.4</v>
       </c>
       <c r="AC34" t="n">
-        <v>40.6</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="35">
@@ -3899,19 +3899,19 @@
         <v>0.808641246666667</v>
       </c>
       <c r="I35" t="n">
-        <v>0.7939983</v>
+        <v>0.7885385</v>
       </c>
       <c r="J35" t="n">
         <v>43</v>
       </c>
       <c r="K35" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L35" t="n">
         <v>0.907148813333333</v>
       </c>
       <c r="M35" t="n">
-        <v>0.91410305</v>
+        <v>0.914463</v>
       </c>
       <c r="N35" t="n">
         <v>40</v>
@@ -3923,43 +3923,43 @@
         <v>0.928956086666667</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.94129835</v>
+        <v>0.9428058</v>
       </c>
       <c r="R35" t="n">
         <v>39</v>
       </c>
       <c r="S35" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="T35" t="n">
         <v>0.875262213333333</v>
       </c>
       <c r="U35" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V35" t="n">
         <v>27</v>
       </c>
       <c r="W35" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="X35" t="n">
         <v>0.789793306666667</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z35" t="n">
         <v>47</v>
       </c>
       <c r="AA35" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AB35" t="n">
         <v>39.2</v>
       </c>
       <c r="AC35" t="n">
-        <v>43.2</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="36">
@@ -3988,19 +3988,19 @@
         <v>0.808590433333333</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7932895</v>
+        <v>0.7885261</v>
       </c>
       <c r="J36" t="n">
         <v>52</v>
       </c>
       <c r="K36" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L36" t="n">
         <v>0.907012566666667</v>
       </c>
       <c r="M36" t="n">
-        <v>0.91439335</v>
+        <v>0.9151849</v>
       </c>
       <c r="N36" t="n">
         <v>55</v>
@@ -4012,43 +4012,43 @@
         <v>0.928688873333333</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.94129525</v>
+        <v>0.9428106</v>
       </c>
       <c r="R36" t="n">
         <v>55</v>
       </c>
       <c r="S36" t="n">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="T36" t="n">
         <v>0.87523048</v>
       </c>
       <c r="U36" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V36" t="n">
         <v>48</v>
       </c>
       <c r="W36" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="X36" t="n">
         <v>0.789606106666667</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z36" t="n">
         <v>84</v>
       </c>
       <c r="AA36" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="AB36" t="n">
         <v>58.8</v>
       </c>
       <c r="AC36" t="n">
-        <v>55.8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
@@ -4077,67 +4077,67 @@
         <v>0.808940406666667</v>
       </c>
       <c r="I37" t="n">
-        <v>0.79386195</v>
+        <v>0.7885323</v>
       </c>
       <c r="J37" t="n">
         <v>17</v>
       </c>
       <c r="K37" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L37" t="n">
         <v>0.90735514</v>
       </c>
       <c r="M37" t="n">
-        <v>0.9148379</v>
+        <v>0.91599</v>
       </c>
       <c r="N37" t="n">
         <v>9</v>
       </c>
       <c r="O37" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="P37" t="n">
         <v>0.929020866666667</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.94129795</v>
+        <v>0.9428095</v>
       </c>
       <c r="R37" t="n">
         <v>17</v>
       </c>
       <c r="S37" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="T37" t="n">
         <v>0.875238833333333</v>
       </c>
       <c r="U37" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V37" t="n">
         <v>44</v>
       </c>
       <c r="W37" t="n">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="X37" t="n">
         <v>0.789712786666667</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z37" t="n">
         <v>72</v>
       </c>
       <c r="AA37" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="AB37" t="n">
         <v>31.8</v>
       </c>
       <c r="AC37" t="n">
-        <v>42</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="38">
@@ -4166,19 +4166,19 @@
         <v>0.808641246666667</v>
       </c>
       <c r="I38" t="n">
-        <v>0.7939983</v>
+        <v>0.7885385</v>
       </c>
       <c r="J38" t="n">
         <v>44</v>
       </c>
       <c r="K38" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L38" t="n">
         <v>0.907148813333333</v>
       </c>
       <c r="M38" t="n">
-        <v>0.91410305</v>
+        <v>0.914463</v>
       </c>
       <c r="N38" t="n">
         <v>41</v>
@@ -4190,43 +4190,43 @@
         <v>0.928956086666667</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.94129835</v>
+        <v>0.9428058</v>
       </c>
       <c r="R38" t="n">
         <v>40</v>
       </c>
       <c r="S38" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="T38" t="n">
         <v>0.875262213333333</v>
       </c>
       <c r="U38" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V38" t="n">
         <v>28</v>
       </c>
       <c r="W38" t="n">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="X38" t="n">
         <v>0.789793306666667</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z38" t="n">
         <v>48</v>
       </c>
       <c r="AA38" t="n">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="AB38" t="n">
         <v>40.2</v>
       </c>
       <c r="AC38" t="n">
-        <v>45</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="39">
@@ -4255,19 +4255,19 @@
         <v>0.81035852</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7961208</v>
+        <v>0.7906454</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L39" t="n">
         <v>0.908204093333333</v>
       </c>
       <c r="M39" t="n">
-        <v>0.91538205</v>
+        <v>0.9169848</v>
       </c>
       <c r="N39" t="n">
         <v>1</v>
@@ -4279,7 +4279,7 @@
         <v>0.929667933333333</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.9423175</v>
+        <v>0.9440427</v>
       </c>
       <c r="R39" t="n">
         <v>1</v>
@@ -4291,31 +4291,31 @@
         <v>0.8739957</v>
       </c>
       <c r="U39" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V39" t="n">
         <v>64</v>
       </c>
       <c r="W39" t="n">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="X39" t="n">
         <v>0.786733926666667</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.9235787</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z39" t="n">
         <v>85</v>
       </c>
       <c r="AA39" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AB39" t="n">
         <v>30.4</v>
       </c>
       <c r="AC39" t="n">
-        <v>32.4</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="40">
@@ -4344,7 +4344,7 @@
         <v>0.8088335</v>
       </c>
       <c r="I40" t="n">
-        <v>0.79359345</v>
+        <v>0.7885323</v>
       </c>
       <c r="J40" t="n">
         <v>25</v>
@@ -4356,55 +4356,55 @@
         <v>0.907298486666667</v>
       </c>
       <c r="M40" t="n">
-        <v>0.91483705</v>
+        <v>0.9159887</v>
       </c>
       <c r="N40" t="n">
         <v>23</v>
       </c>
       <c r="O40" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P40" t="n">
         <v>0.928995513333333</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.94129765</v>
+        <v>0.9428095</v>
       </c>
       <c r="R40" t="n">
         <v>21</v>
       </c>
       <c r="S40" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T40" t="n">
         <v>0.875252913333333</v>
       </c>
       <c r="U40" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V40" t="n">
         <v>35</v>
       </c>
       <c r="W40" t="n">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="X40" t="n">
         <v>0.78972084</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z40" t="n">
         <v>69</v>
       </c>
       <c r="AA40" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="AB40" t="n">
         <v>34.6</v>
       </c>
       <c r="AC40" t="n">
-        <v>46.2</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="41">
@@ -4433,19 +4433,19 @@
         <v>0.808641246666667</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7939983</v>
+        <v>0.7885385</v>
       </c>
       <c r="J41" t="n">
         <v>45</v>
       </c>
       <c r="K41" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="L41" t="n">
         <v>0.907148813333333</v>
       </c>
       <c r="M41" t="n">
-        <v>0.91410305</v>
+        <v>0.914463</v>
       </c>
       <c r="N41" t="n">
         <v>42</v>
@@ -4457,43 +4457,43 @@
         <v>0.928956086666667</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.94129835</v>
+        <v>0.9428058</v>
       </c>
       <c r="R41" t="n">
         <v>41</v>
       </c>
       <c r="S41" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="T41" t="n">
         <v>0.875262213333333</v>
       </c>
       <c r="U41" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V41" t="n">
         <v>29</v>
       </c>
       <c r="W41" t="n">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="X41" t="n">
         <v>0.789793306666667</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z41" t="n">
         <v>49</v>
       </c>
       <c r="AA41" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AB41" t="n">
         <v>41.2</v>
       </c>
       <c r="AC41" t="n">
-        <v>46.6</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="42">
@@ -4522,19 +4522,19 @@
         <v>0.810336746666667</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7961107</v>
+        <v>0.7906454</v>
       </c>
       <c r="J42" t="n">
         <v>2</v>
       </c>
       <c r="K42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
         <v>0.90819682</v>
       </c>
       <c r="M42" t="n">
-        <v>0.91533675</v>
+        <v>0.9168966</v>
       </c>
       <c r="N42" t="n">
         <v>2</v>
@@ -4546,7 +4546,7 @@
         <v>0.929660626666667</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.9423175</v>
+        <v>0.9440427</v>
       </c>
       <c r="R42" t="n">
         <v>3</v>
@@ -4558,31 +4558,31 @@
         <v>0.8739957</v>
       </c>
       <c r="U42" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V42" t="n">
         <v>65</v>
       </c>
       <c r="W42" t="n">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="X42" t="n">
         <v>0.786733926666667</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.9235787</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z42" t="n">
         <v>86</v>
       </c>
       <c r="AA42" t="n">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="AB42" t="n">
         <v>31.6</v>
       </c>
       <c r="AC42" t="n">
-        <v>33.8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -4611,7 +4611,7 @@
         <v>0.80881374</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7935421</v>
+        <v>0.7885323</v>
       </c>
       <c r="J43" t="n">
         <v>28</v>
@@ -4623,55 +4623,55 @@
         <v>0.907285306666667</v>
       </c>
       <c r="M43" t="n">
-        <v>0.9148359</v>
+        <v>0.9159879</v>
       </c>
       <c r="N43" t="n">
         <v>27</v>
       </c>
       <c r="O43" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P43" t="n">
         <v>0.92898726</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.9412974</v>
+        <v>0.9428095</v>
       </c>
       <c r="R43" t="n">
         <v>26</v>
       </c>
       <c r="S43" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T43" t="n">
         <v>0.875254566666667</v>
       </c>
       <c r="U43" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V43" t="n">
         <v>32</v>
       </c>
       <c r="W43" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="X43" t="n">
         <v>0.78973494</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z43" t="n">
         <v>64</v>
       </c>
       <c r="AA43" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="AB43" t="n">
         <v>35.4</v>
       </c>
       <c r="AC43" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44">
@@ -4700,19 +4700,19 @@
         <v>0.808641246666667</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7939983</v>
+        <v>0.7885385</v>
       </c>
       <c r="J44" t="n">
         <v>46</v>
       </c>
       <c r="K44" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="L44" t="n">
         <v>0.907148813333333</v>
       </c>
       <c r="M44" t="n">
-        <v>0.91410305</v>
+        <v>0.914463</v>
       </c>
       <c r="N44" t="n">
         <v>43</v>
@@ -4724,43 +4724,43 @@
         <v>0.928956086666667</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.94129835</v>
+        <v>0.9428058</v>
       </c>
       <c r="R44" t="n">
         <v>42</v>
       </c>
       <c r="S44" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="T44" t="n">
         <v>0.875262213333333</v>
       </c>
       <c r="U44" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V44" t="n">
         <v>30</v>
       </c>
       <c r="W44" t="n">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="X44" t="n">
         <v>0.789793306666667</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z44" t="n">
         <v>50</v>
       </c>
       <c r="AA44" t="n">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="AB44" t="n">
         <v>42.2</v>
       </c>
       <c r="AC44" t="n">
-        <v>48.2</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="45">
@@ -4789,19 +4789,19 @@
         <v>0.810335666666667</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7961107</v>
+        <v>0.7906454</v>
       </c>
       <c r="J45" t="n">
         <v>3</v>
       </c>
       <c r="K45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L45" t="n">
         <v>0.90819672</v>
       </c>
       <c r="M45" t="n">
-        <v>0.9153351</v>
+        <v>0.9168933</v>
       </c>
       <c r="N45" t="n">
         <v>3</v>
@@ -4813,7 +4813,7 @@
         <v>0.929660753333333</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.9423175</v>
+        <v>0.9440427</v>
       </c>
       <c r="R45" t="n">
         <v>2</v>
@@ -4825,31 +4825,31 @@
         <v>0.8739957</v>
       </c>
       <c r="U45" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V45" t="n">
         <v>66</v>
       </c>
       <c r="W45" t="n">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="X45" t="n">
         <v>0.786733926666667</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.9235787</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z45" t="n">
         <v>87</v>
       </c>
       <c r="AA45" t="n">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="AB45" t="n">
         <v>32.2</v>
       </c>
       <c r="AC45" t="n">
-        <v>35.2</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="46">
@@ -4878,7 +4878,7 @@
         <v>0.808792413333333</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7935076</v>
+        <v>0.7885302</v>
       </c>
       <c r="J46" t="n">
         <v>30</v>
@@ -4890,55 +4890,55 @@
         <v>0.90727652</v>
       </c>
       <c r="M46" t="n">
-        <v>0.9148238</v>
+        <v>0.9159853</v>
       </c>
       <c r="N46" t="n">
         <v>29</v>
       </c>
       <c r="O46" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P46" t="n">
         <v>0.928981613333333</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.94129675</v>
+        <v>0.9428095</v>
       </c>
       <c r="R46" t="n">
         <v>28</v>
       </c>
       <c r="S46" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="T46" t="n">
         <v>0.875254566666667</v>
       </c>
       <c r="U46" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V46" t="n">
         <v>33</v>
       </c>
       <c r="W46" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="X46" t="n">
         <v>0.78973494</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z46" t="n">
         <v>65</v>
       </c>
       <c r="AA46" t="n">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="AB46" t="n">
         <v>37</v>
       </c>
       <c r="AC46" t="n">
-        <v>51.8</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="47">
@@ -4967,19 +4967,19 @@
         <v>0.808641246666667</v>
       </c>
       <c r="I47" t="n">
-        <v>0.7939983</v>
+        <v>0.7885385</v>
       </c>
       <c r="J47" t="n">
         <v>47</v>
       </c>
       <c r="K47" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L47" t="n">
         <v>0.907148813333333</v>
       </c>
       <c r="M47" t="n">
-        <v>0.91410305</v>
+        <v>0.914463</v>
       </c>
       <c r="N47" t="n">
         <v>44</v>
@@ -4991,43 +4991,43 @@
         <v>0.928956086666667</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.94129835</v>
+        <v>0.9428058</v>
       </c>
       <c r="R47" t="n">
         <v>43</v>
       </c>
       <c r="S47" t="n">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="T47" t="n">
         <v>0.875262213333333</v>
       </c>
       <c r="U47" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V47" t="n">
         <v>31</v>
       </c>
       <c r="W47" t="n">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="X47" t="n">
         <v>0.789793306666667</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z47" t="n">
         <v>51</v>
       </c>
       <c r="AA47" t="n">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="AB47" t="n">
         <v>43.2</v>
       </c>
       <c r="AC47" t="n">
-        <v>49.8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48">
@@ -5056,19 +5056,19 @@
         <v>0.810258326666667</v>
       </c>
       <c r="I48" t="n">
-        <v>0.79612885</v>
+        <v>0.7906454</v>
       </c>
       <c r="J48" t="n">
         <v>4</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L48" t="n">
         <v>0.908171893333333</v>
       </c>
       <c r="M48" t="n">
-        <v>0.9151711</v>
+        <v>0.9165769</v>
       </c>
       <c r="N48" t="n">
         <v>4</v>
@@ -5080,7 +5080,7 @@
         <v>0.92964796</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.94231705</v>
+        <v>0.9440427</v>
       </c>
       <c r="R48" t="n">
         <v>4</v>
@@ -5092,31 +5092,31 @@
         <v>0.873983106666667</v>
       </c>
       <c r="U48" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V48" t="n">
         <v>67</v>
       </c>
       <c r="W48" t="n">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="X48" t="n">
         <v>0.786712246666667</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.9235787</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z48" t="n">
         <v>88</v>
       </c>
       <c r="AA48" t="n">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="AB48" t="n">
         <v>33.4</v>
       </c>
       <c r="AC48" t="n">
-        <v>35.4</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="49">
@@ -5145,7 +5145,7 @@
         <v>0.808780566666667</v>
       </c>
       <c r="I49" t="n">
-        <v>0.7935056</v>
+        <v>0.7885302</v>
       </c>
       <c r="J49" t="n">
         <v>31</v>
@@ -5157,55 +5157,55 @@
         <v>0.907269766666667</v>
       </c>
       <c r="M49" t="n">
-        <v>0.91481325</v>
+        <v>0.9159858</v>
       </c>
       <c r="N49" t="n">
         <v>30</v>
       </c>
       <c r="O49" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="P49" t="n">
         <v>0.928990293333333</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.941297</v>
+        <v>0.9428095</v>
       </c>
       <c r="R49" t="n">
         <v>24</v>
       </c>
       <c r="S49" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="T49" t="n">
         <v>0.87526986</v>
       </c>
       <c r="U49" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V49" t="n">
         <v>15</v>
       </c>
       <c r="W49" t="n">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="X49" t="n">
         <v>0.789759373333333</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z49" t="n">
         <v>56</v>
       </c>
       <c r="AA49" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AB49" t="n">
         <v>31.2</v>
       </c>
       <c r="AC49" t="n">
-        <v>53</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="50">
@@ -5234,19 +5234,19 @@
         <v>0.808474873333333</v>
       </c>
       <c r="I50" t="n">
-        <v>0.79375905</v>
+        <v>0.7885385</v>
       </c>
       <c r="J50" t="n">
         <v>55</v>
       </c>
       <c r="K50" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="L50" t="n">
         <v>0.907074086666667</v>
       </c>
       <c r="M50" t="n">
-        <v>0.913897</v>
+        <v>0.9140509</v>
       </c>
       <c r="N50" t="n">
         <v>48</v>
@@ -5258,43 +5258,43 @@
         <v>0.928917833333333</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.94129835</v>
+        <v>0.9428058</v>
       </c>
       <c r="R50" t="n">
         <v>48</v>
       </c>
       <c r="S50" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="T50" t="n">
         <v>0.875217853333333</v>
       </c>
       <c r="U50" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V50" t="n">
         <v>49</v>
       </c>
       <c r="W50" t="n">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="X50" t="n">
         <v>0.789769766666667</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z50" t="n">
         <v>52</v>
       </c>
       <c r="AA50" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="AB50" t="n">
         <v>50.4</v>
       </c>
       <c r="AC50" t="n">
-        <v>52.8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51">
@@ -5323,31 +5323,31 @@
         <v>0.810245</v>
       </c>
       <c r="I51" t="n">
-        <v>0.79612885</v>
+        <v>0.7906454</v>
       </c>
       <c r="J51" t="n">
         <v>5</v>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L51" t="n">
         <v>0.908121753333333</v>
       </c>
       <c r="M51" t="n">
-        <v>0.91479505</v>
+        <v>0.9158248</v>
       </c>
       <c r="N51" t="n">
         <v>5</v>
       </c>
       <c r="O51" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P51" t="n">
         <v>0.929598226666667</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.94203905</v>
+        <v>0.9434867</v>
       </c>
       <c r="R51" t="n">
         <v>5</v>
@@ -5359,31 +5359,31 @@
         <v>0.873951686666667</v>
       </c>
       <c r="U51" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V51" t="n">
         <v>68</v>
       </c>
       <c r="W51" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="X51" t="n">
         <v>0.786667813333333</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.9235787</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z51" t="n">
         <v>89</v>
       </c>
       <c r="AA51" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="AB51" t="n">
         <v>34.4</v>
       </c>
       <c r="AC51" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
@@ -5412,67 +5412,67 @@
         <v>0.808763746666667</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7934995</v>
+        <v>0.7885302</v>
       </c>
       <c r="J52" t="n">
         <v>34</v>
       </c>
       <c r="K52" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L52" t="n">
         <v>0.907264353333333</v>
       </c>
       <c r="M52" t="n">
-        <v>0.9148084</v>
+        <v>0.9159858</v>
       </c>
       <c r="N52" t="n">
         <v>31</v>
       </c>
       <c r="O52" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P52" t="n">
         <v>0.928977386666667</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.941297</v>
+        <v>0.9428095</v>
       </c>
       <c r="R52" t="n">
         <v>30</v>
       </c>
       <c r="S52" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="T52" t="n">
         <v>0.87524114</v>
       </c>
       <c r="U52" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V52" t="n">
         <v>43</v>
       </c>
       <c r="W52" t="n">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="X52" t="n">
         <v>0.789726773333333</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z52" t="n">
         <v>66</v>
       </c>
       <c r="AA52" t="n">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="AB52" t="n">
         <v>40.8</v>
       </c>
       <c r="AC52" t="n">
-        <v>55.4</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="53">
@@ -5501,19 +5501,19 @@
         <v>0.808474873333333</v>
       </c>
       <c r="I53" t="n">
-        <v>0.79375905</v>
+        <v>0.7885385</v>
       </c>
       <c r="J53" t="n">
         <v>56</v>
       </c>
       <c r="K53" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="L53" t="n">
         <v>0.907074086666667</v>
       </c>
       <c r="M53" t="n">
-        <v>0.913897</v>
+        <v>0.9140509</v>
       </c>
       <c r="N53" t="n">
         <v>49</v>
@@ -5525,43 +5525,43 @@
         <v>0.928917833333333</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.94129835</v>
+        <v>0.9428058</v>
       </c>
       <c r="R53" t="n">
         <v>49</v>
       </c>
       <c r="S53" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="T53" t="n">
         <v>0.875217853333333</v>
       </c>
       <c r="U53" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V53" t="n">
         <v>50</v>
       </c>
       <c r="W53" t="n">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="X53" t="n">
         <v>0.789769766666667</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z53" t="n">
         <v>53</v>
       </c>
       <c r="AA53" t="n">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="AB53" t="n">
         <v>51.4</v>
       </c>
       <c r="AC53" t="n">
-        <v>54.4</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="54">
@@ -5590,19 +5590,19 @@
         <v>0.81024392</v>
       </c>
       <c r="I54" t="n">
-        <v>0.79612885</v>
+        <v>0.7906454</v>
       </c>
       <c r="J54" t="n">
         <v>6</v>
       </c>
       <c r="K54" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L54" t="n">
         <v>0.908121533333333</v>
       </c>
       <c r="M54" t="n">
-        <v>0.9147934</v>
+        <v>0.9158215</v>
       </c>
       <c r="N54" t="n">
         <v>6</v>
@@ -5614,7 +5614,7 @@
         <v>0.929598113333333</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.9420382</v>
+        <v>0.943485</v>
       </c>
       <c r="R54" t="n">
         <v>6</v>
@@ -5626,31 +5626,31 @@
         <v>0.873951686666667</v>
       </c>
       <c r="U54" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V54" t="n">
         <v>69</v>
       </c>
       <c r="W54" t="n">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="X54" t="n">
         <v>0.786667813333333</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.9235787</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z54" t="n">
         <v>90</v>
       </c>
       <c r="AA54" t="n">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="AB54" t="n">
         <v>35.4</v>
       </c>
       <c r="AC54" t="n">
-        <v>43.8</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="55">
@@ -5679,19 +5679,19 @@
         <v>0.808743026666667</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7935056</v>
+        <v>0.7885302</v>
       </c>
       <c r="J55" t="n">
         <v>35</v>
       </c>
       <c r="K55" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L55" t="n">
         <v>0.90726048</v>
       </c>
       <c r="M55" t="n">
-        <v>0.91480245</v>
+        <v>0.9159858</v>
       </c>
       <c r="N55" t="n">
         <v>32</v>
@@ -5703,43 +5703,43 @@
         <v>0.928988646666667</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.941297</v>
+        <v>0.9428095</v>
       </c>
       <c r="R55" t="n">
         <v>25</v>
       </c>
       <c r="S55" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="T55" t="n">
         <v>0.875242366666667</v>
       </c>
       <c r="U55" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V55" t="n">
         <v>42</v>
       </c>
       <c r="W55" t="n">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="X55" t="n">
         <v>0.789743146666667</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.92385425</v>
+        <v>0.9293631</v>
       </c>
       <c r="Z55" t="n">
         <v>62</v>
       </c>
       <c r="AA55" t="n">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="AB55" t="n">
         <v>39.2</v>
       </c>
       <c r="AC55" t="n">
-        <v>56.8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56">
@@ -5768,67 +5768,67 @@
         <v>0.80939674</v>
       </c>
       <c r="I56" t="n">
-        <v>0.79417805</v>
+        <v>0.7884538</v>
       </c>
       <c r="J56" t="n">
         <v>8</v>
       </c>
       <c r="K56" t="n">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="L56" t="n">
         <v>0.907439473333333</v>
       </c>
       <c r="M56" t="n">
-        <v>0.91485475</v>
+        <v>0.9159723</v>
       </c>
       <c r="N56" t="n">
         <v>8</v>
       </c>
       <c r="O56" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="P56" t="n">
         <v>0.929085733333333</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.9412982</v>
+        <v>0.9428186</v>
       </c>
       <c r="R56" t="n">
         <v>8</v>
       </c>
       <c r="S56" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="T56" t="n">
         <v>0.87527432</v>
       </c>
       <c r="U56" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V56" t="n">
         <v>14</v>
       </c>
       <c r="W56" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="X56" t="n">
         <v>0.791082693333333</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.9244114</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z56" t="n">
         <v>34</v>
       </c>
       <c r="AA56" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="AB56" t="n">
         <v>14.4</v>
       </c>
       <c r="AC56" t="n">
-        <v>26.8</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="57">
@@ -5857,19 +5857,19 @@
         <v>0.78679098</v>
       </c>
       <c r="I57" t="n">
-        <v>0.7893155</v>
+        <v>0.79184</v>
       </c>
       <c r="J57" t="n">
         <v>57</v>
       </c>
       <c r="K57" t="n">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
         <v>0.90026168</v>
       </c>
       <c r="M57" t="n">
-        <v>0.9131717</v>
+        <v>0.9137603</v>
       </c>
       <c r="N57" t="n">
         <v>57</v>
@@ -5881,43 +5881,43 @@
         <v>0.925393253333333</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.9387238</v>
+        <v>0.940132</v>
       </c>
       <c r="R57" t="n">
         <v>57</v>
       </c>
       <c r="S57" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T57" t="n">
         <v>0.87489538</v>
       </c>
       <c r="U57" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V57" t="n">
         <v>52</v>
       </c>
       <c r="W57" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="X57" t="n">
         <v>0.791142406666667</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.924366</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z57" t="n">
         <v>30</v>
       </c>
       <c r="AA57" t="n">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="AB57" t="n">
         <v>50.6</v>
       </c>
       <c r="AC57" t="n">
-        <v>35.2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58">
@@ -5946,7 +5946,7 @@
         <v>0.75345478</v>
       </c>
       <c r="I58" t="n">
-        <v>0.7693201</v>
+        <v>0.7851854</v>
       </c>
       <c r="J58" t="n">
         <v>59</v>
@@ -5958,7 +5958,7 @@
         <v>0.8724341</v>
       </c>
       <c r="M58" t="n">
-        <v>0.9089876</v>
+        <v>0.909828</v>
       </c>
       <c r="N58" t="n">
         <v>59</v>
@@ -5970,7 +5970,7 @@
         <v>0.910607693333333</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.9300838</v>
+        <v>0.932535</v>
       </c>
       <c r="R58" t="n">
         <v>59</v>
@@ -5982,31 +5982,31 @@
         <v>0.87469458</v>
       </c>
       <c r="U58" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V58" t="n">
         <v>55</v>
       </c>
       <c r="W58" t="n">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="X58" t="n">
         <v>0.791253053333333</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.9243461</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z58" t="n">
         <v>9</v>
       </c>
       <c r="AA58" t="n">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="AB58" t="n">
         <v>48.2</v>
       </c>
       <c r="AC58" t="n">
-        <v>36.6</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="59">
@@ -6035,7 +6035,7 @@
         <v>0.726398306666667</v>
       </c>
       <c r="I59" t="n">
-        <v>0.7394318</v>
+        <v>0.7524653</v>
       </c>
       <c r="J59" t="n">
         <v>61</v>
@@ -6047,7 +6047,7 @@
         <v>0.846631273333333</v>
       </c>
       <c r="M59" t="n">
-        <v>0.89063845</v>
+        <v>0.903783</v>
       </c>
       <c r="N59" t="n">
         <v>61</v>
@@ -6059,7 +6059,7 @@
         <v>0.883357326666667</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.9237744</v>
+        <v>0.9258499</v>
       </c>
       <c r="R59" t="n">
         <v>62</v>
@@ -6071,31 +6071,31 @@
         <v>0.874509753333333</v>
       </c>
       <c r="U59" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V59" t="n">
         <v>57</v>
       </c>
       <c r="W59" t="n">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="X59" t="n">
         <v>0.79129578</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.9242177</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z59" t="n">
         <v>1</v>
       </c>
       <c r="AA59" t="n">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="AB59" t="n">
         <v>48.4</v>
       </c>
       <c r="AC59" t="n">
-        <v>39.4</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="60">
@@ -6124,7 +6124,7 @@
         <v>0.70147616</v>
       </c>
       <c r="I60" t="n">
-        <v>0.6900007</v>
+        <v>0.6785252</v>
       </c>
       <c r="J60" t="n">
         <v>63</v>
@@ -6136,7 +6136,7 @@
         <v>0.828071906666667</v>
       </c>
       <c r="M60" t="n">
-        <v>0.8653467</v>
+        <v>0.8852721</v>
       </c>
       <c r="N60" t="n">
         <v>64</v>
@@ -6148,43 +6148,43 @@
         <v>0.867589226666667</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.9122241</v>
+        <v>0.9199686</v>
       </c>
       <c r="R60" t="n">
         <v>64</v>
       </c>
       <c r="S60" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T60" t="n">
         <v>0.874282986666667</v>
       </c>
       <c r="U60" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V60" t="n">
         <v>60</v>
       </c>
       <c r="W60" t="n">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="X60" t="n">
         <v>0.791253966666667</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.92416635</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z60" t="n">
         <v>8</v>
       </c>
       <c r="AA60" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="AB60" t="n">
         <v>51.8</v>
       </c>
       <c r="AC60" t="n">
-        <v>40.8</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="61">
@@ -6213,67 +6213,67 @@
         <v>0.67827414</v>
       </c>
       <c r="I61" t="n">
-        <v>0.65853215</v>
+        <v>0.6432685</v>
       </c>
       <c r="J61" t="n">
         <v>66</v>
       </c>
       <c r="K61" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L61" t="n">
         <v>0.810696186666667</v>
       </c>
       <c r="M61" t="n">
-        <v>0.84150025</v>
+        <v>0.8723043</v>
       </c>
       <c r="N61" t="n">
         <v>66</v>
       </c>
       <c r="O61" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P61" t="n">
         <v>0.854850033333333</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.8986422</v>
+        <v>0.9133103</v>
       </c>
       <c r="R61" t="n">
         <v>66</v>
       </c>
       <c r="S61" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T61" t="n">
         <v>0.874028906666667</v>
       </c>
       <c r="U61" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V61" t="n">
         <v>63</v>
       </c>
       <c r="W61" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="X61" t="n">
         <v>0.791220293333333</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.92401215</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z61" t="n">
         <v>18</v>
       </c>
       <c r="AA61" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="AB61" t="n">
         <v>55.8</v>
       </c>
       <c r="AC61" t="n">
-        <v>43.4</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="62">
@@ -6302,19 +6302,19 @@
         <v>0.653316113333333</v>
       </c>
       <c r="I62" t="n">
-        <v>0.6440821</v>
+        <v>0.6425377</v>
       </c>
       <c r="J62" t="n">
         <v>68</v>
       </c>
       <c r="K62" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L62" t="n">
         <v>0.789760013333333</v>
       </c>
       <c r="M62" t="n">
-        <v>0.82386835</v>
+        <v>0.8579767</v>
       </c>
       <c r="N62" t="n">
         <v>68</v>
@@ -6326,7 +6326,7 @@
         <v>0.84005682</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.8836957</v>
+        <v>0.9059542</v>
       </c>
       <c r="R62" t="n">
         <v>68</v>
@@ -6338,31 +6338,31 @@
         <v>0.87392734</v>
       </c>
       <c r="U62" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V62" t="n">
         <v>71</v>
       </c>
       <c r="W62" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="X62" t="n">
         <v>0.791198166666667</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.92396075</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z62" t="n">
         <v>20</v>
       </c>
       <c r="AA62" t="n">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="AB62" t="n">
         <v>59</v>
       </c>
       <c r="AC62" t="n">
-        <v>45.4</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="63">
@@ -6391,7 +6391,7 @@
         <v>0.632581666666667</v>
       </c>
       <c r="I63" t="n">
-        <v>0.61103935</v>
+        <v>0.6025268</v>
       </c>
       <c r="J63" t="n">
         <v>70</v>
@@ -6403,7 +6403,7 @@
         <v>0.76931954</v>
       </c>
       <c r="M63" t="n">
-        <v>0.80176985</v>
+        <v>0.8342202</v>
       </c>
       <c r="N63" t="n">
         <v>70</v>
@@ -6415,7 +6415,7 @@
         <v>0.824754086666667</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.867503</v>
+        <v>0.8938119</v>
       </c>
       <c r="R63" t="n">
         <v>70</v>
@@ -6427,31 +6427,31 @@
         <v>0.873817373333333</v>
       </c>
       <c r="U63" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V63" t="n">
         <v>73</v>
       </c>
       <c r="W63" t="n">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="X63" t="n">
         <v>0.791228546666667</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.92390935</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z63" t="n">
         <v>14</v>
       </c>
       <c r="AA63" t="n">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="AB63" t="n">
         <v>59.4</v>
       </c>
       <c r="AC63" t="n">
-        <v>47.6</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="64">
@@ -6480,7 +6480,7 @@
         <v>0.617996513333333</v>
       </c>
       <c r="I64" t="n">
-        <v>0.5852239</v>
+        <v>0.5718566</v>
       </c>
       <c r="J64" t="n">
         <v>72</v>
@@ -6492,7 +6492,7 @@
         <v>0.751601513333333</v>
       </c>
       <c r="M64" t="n">
-        <v>0.77776445</v>
+        <v>0.8039274</v>
       </c>
       <c r="N64" t="n">
         <v>72</v>
@@ -6504,7 +6504,7 @@
         <v>0.809417233333333</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.8470694</v>
+        <v>0.8782475</v>
       </c>
       <c r="R64" t="n">
         <v>72</v>
@@ -6516,31 +6516,31 @@
         <v>0.873665346666667</v>
       </c>
       <c r="U64" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V64" t="n">
         <v>79</v>
       </c>
       <c r="W64" t="n">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="X64" t="n">
         <v>0.791204573333333</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.92383225</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z64" t="n">
         <v>19</v>
       </c>
       <c r="AA64" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="AB64" t="n">
         <v>62.8</v>
       </c>
       <c r="AC64" t="n">
-        <v>59.8</v>
+        <v>68.4</v>
       </c>
     </row>
     <row r="65">
@@ -6569,7 +6569,7 @@
         <v>0.60255054</v>
       </c>
       <c r="I65" t="n">
-        <v>0.5634001</v>
+        <v>0.5533633</v>
       </c>
       <c r="J65" t="n">
         <v>74</v>
@@ -6581,7 +6581,7 @@
         <v>0.732906913333333</v>
       </c>
       <c r="M65" t="n">
-        <v>0.75536125</v>
+        <v>0.7622309</v>
       </c>
       <c r="N65" t="n">
         <v>74</v>
@@ -6593,7 +6593,7 @@
         <v>0.79267434</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.8247439</v>
+        <v>0.8568135</v>
       </c>
       <c r="R65" t="n">
         <v>74</v>
@@ -6605,31 +6605,31 @@
         <v>0.873554013333333</v>
       </c>
       <c r="U65" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V65" t="n">
         <v>82</v>
       </c>
       <c r="W65" t="n">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="X65" t="n">
         <v>0.79118524</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.92383225</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z65" t="n">
         <v>23</v>
       </c>
       <c r="AA65" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="AB65" t="n">
         <v>65.4</v>
       </c>
       <c r="AC65" t="n">
-        <v>61.4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66">
@@ -6658,7 +6658,7 @@
         <v>0.590616446666667</v>
       </c>
       <c r="I66" t="n">
-        <v>0.54915795</v>
+        <v>0.5435918</v>
       </c>
       <c r="J66" t="n">
         <v>76</v>
@@ -6670,7 +6670,7 @@
         <v>0.71542662</v>
       </c>
       <c r="M66" t="n">
-        <v>0.71926205</v>
+        <v>0.7224301</v>
       </c>
       <c r="N66" t="n">
         <v>76</v>
@@ -6682,7 +6682,7 @@
         <v>0.776760766666667</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.81080275</v>
+        <v>0.8330695</v>
       </c>
       <c r="R66" t="n">
         <v>76</v>
@@ -6694,31 +6694,31 @@
         <v>0.873507973333333</v>
       </c>
       <c r="U66" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V66" t="n">
         <v>83</v>
       </c>
       <c r="W66" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="X66" t="n">
         <v>0.791176993333333</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.92380655</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z66" t="n">
         <v>24</v>
       </c>
       <c r="AA66" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AB66" t="n">
         <v>67</v>
       </c>
       <c r="AC66" t="n">
-        <v>63</v>
+        <v>71.6</v>
       </c>
     </row>
     <row r="67">
@@ -6747,19 +6747,19 @@
         <v>0.5809146</v>
       </c>
       <c r="I67" t="n">
-        <v>0.54011185</v>
+        <v>0.5362991</v>
       </c>
       <c r="J67" t="n">
         <v>78</v>
       </c>
       <c r="K67" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L67" t="n">
         <v>0.699909946666667</v>
       </c>
       <c r="M67" t="n">
-        <v>0.6925643</v>
+        <v>0.6852187</v>
       </c>
       <c r="N67" t="n">
         <v>78</v>
@@ -6771,7 +6771,7 @@
         <v>0.762374073333333</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.79965635</v>
+        <v>0.8116691</v>
       </c>
       <c r="R67" t="n">
         <v>78</v>
@@ -6783,31 +6783,31 @@
         <v>0.873470093333333</v>
       </c>
       <c r="U67" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V67" t="n">
         <v>84</v>
       </c>
       <c r="W67" t="n">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="X67" t="n">
         <v>0.79116256</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.9237808</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z67" t="n">
         <v>25</v>
       </c>
       <c r="AA67" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="AB67" t="n">
         <v>68.6</v>
       </c>
       <c r="AC67" t="n">
-        <v>64.8</v>
+        <v>73.6</v>
       </c>
     </row>
     <row r="68">
@@ -6836,7 +6836,7 @@
         <v>0.57544214</v>
       </c>
       <c r="I68" t="n">
-        <v>0.5356748</v>
+        <v>0.5330194</v>
       </c>
       <c r="J68" t="n">
         <v>80</v>
@@ -6848,7 +6848,7 @@
         <v>0.690962933333333</v>
       </c>
       <c r="M68" t="n">
-        <v>0.67972325</v>
+        <v>0.6684836</v>
       </c>
       <c r="N68" t="n">
         <v>81</v>
@@ -6860,7 +6860,7 @@
         <v>0.75394006</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.7878382</v>
+        <v>0.7878718</v>
       </c>
       <c r="R68" t="n">
         <v>81</v>
@@ -6872,31 +6872,31 @@
         <v>0.873457726666667</v>
       </c>
       <c r="U68" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V68" t="n">
         <v>85</v>
       </c>
       <c r="W68" t="n">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="X68" t="n">
         <v>0.791158746666667</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.9237808</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z68" t="n">
         <v>26</v>
       </c>
       <c r="AA68" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="AB68" t="n">
         <v>70.6</v>
       </c>
       <c r="AC68" t="n">
-        <v>66.8</v>
+        <v>75.4</v>
       </c>
     </row>
     <row r="69">
@@ -6925,7 +6925,7 @@
         <v>0.56889266</v>
       </c>
       <c r="I69" t="n">
-        <v>0.53190795</v>
+        <v>0.5299689</v>
       </c>
       <c r="J69" t="n">
         <v>82</v>
@@ -6937,7 +6937,7 @@
         <v>0.6827291</v>
       </c>
       <c r="M69" t="n">
-        <v>0.6628125</v>
+        <v>0.6529183</v>
       </c>
       <c r="N69" t="n">
         <v>83</v>
@@ -6949,7 +6949,7 @@
         <v>0.745856106666667</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.77608385</v>
+        <v>0.7862706</v>
       </c>
       <c r="R69" t="n">
         <v>83</v>
@@ -6961,31 +6961,31 @@
         <v>0.873457726666667</v>
       </c>
       <c r="U69" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V69" t="n">
         <v>86</v>
       </c>
       <c r="W69" t="n">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="X69" t="n">
         <v>0.791158746666667</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.9237808</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z69" t="n">
         <v>27</v>
       </c>
       <c r="AA69" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="AB69" t="n">
         <v>72.2</v>
       </c>
       <c r="AC69" t="n">
-        <v>68.4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70">
@@ -7014,7 +7014,7 @@
         <v>0.56141876</v>
       </c>
       <c r="I70" t="n">
-        <v>0.5284237</v>
+        <v>0.5272479</v>
       </c>
       <c r="J70" t="n">
         <v>84</v>
@@ -7026,7 +7026,7 @@
         <v>0.674776893333333</v>
       </c>
       <c r="M70" t="n">
-        <v>0.6450339</v>
+        <v>0.6390344</v>
       </c>
       <c r="N70" t="n">
         <v>85</v>
@@ -7038,7 +7038,7 @@
         <v>0.737442186666667</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.75579525</v>
+        <v>0.7705848</v>
       </c>
       <c r="R70" t="n">
         <v>85</v>
@@ -7050,31 +7050,31 @@
         <v>0.8734332</v>
       </c>
       <c r="U70" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V70" t="n">
         <v>87</v>
       </c>
       <c r="W70" t="n">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="X70" t="n">
         <v>0.791157746666667</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.9237808</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z70" t="n">
         <v>28</v>
       </c>
       <c r="AA70" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="AB70" t="n">
         <v>73.8</v>
       </c>
       <c r="AC70" t="n">
-        <v>70</v>
+        <v>78.6</v>
       </c>
     </row>
     <row r="71">
@@ -7103,7 +7103,7 @@
         <v>0.55599724</v>
       </c>
       <c r="I71" t="n">
-        <v>0.5257452</v>
+        <v>0.5244989</v>
       </c>
       <c r="J71" t="n">
         <v>86</v>
@@ -7115,7 +7115,7 @@
         <v>0.667770106666667</v>
       </c>
       <c r="M71" t="n">
-        <v>0.63136645</v>
+        <v>0.6250071</v>
       </c>
       <c r="N71" t="n">
         <v>87</v>
@@ -7127,7 +7127,7 @@
         <v>0.7297925</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.74054455</v>
+        <v>0.7512966</v>
       </c>
       <c r="R71" t="n">
         <v>87</v>
@@ -7139,31 +7139,31 @@
         <v>0.873408806666667</v>
       </c>
       <c r="U71" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V71" t="n">
         <v>88</v>
       </c>
       <c r="W71" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="X71" t="n">
         <v>0.79115674</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.9237808</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z71" t="n">
         <v>29</v>
       </c>
       <c r="AA71" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AB71" t="n">
         <v>75.4</v>
       </c>
       <c r="AC71" t="n">
-        <v>71.6</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="72">
@@ -7192,7 +7192,7 @@
         <v>0.54984334</v>
       </c>
       <c r="I72" t="n">
-        <v>0.52207735</v>
+        <v>0.5208812</v>
       </c>
       <c r="J72" t="n">
         <v>89</v>
@@ -7204,7 +7204,7 @@
         <v>0.659013306666667</v>
       </c>
       <c r="M72" t="n">
-        <v>0.6126509</v>
+        <v>0.6065475</v>
       </c>
       <c r="N72" t="n">
         <v>89</v>
@@ -7216,7 +7216,7 @@
         <v>0.718818726666667</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.71876055</v>
+        <v>0.7187024</v>
       </c>
       <c r="R72" t="n">
         <v>89</v>
@@ -7228,31 +7228,31 @@
         <v>0.873323006666667</v>
       </c>
       <c r="U72" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V72" t="n">
         <v>89</v>
       </c>
       <c r="W72" t="n">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="X72" t="n">
         <v>0.79112516</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.9237551</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z72" t="n">
         <v>31</v>
       </c>
       <c r="AA72" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="AB72" t="n">
         <v>77.4</v>
       </c>
       <c r="AC72" t="n">
-        <v>73.2</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="73">
@@ -7281,7 +7281,7 @@
         <v>0.54567282</v>
       </c>
       <c r="I73" t="n">
-        <v>0.520411</v>
+        <v>0.5196563</v>
       </c>
       <c r="J73" t="n">
         <v>90</v>
@@ -7293,7 +7293,7 @@
         <v>0.65336484</v>
       </c>
       <c r="M73" t="n">
-        <v>0.60414845</v>
+        <v>0.6002974</v>
       </c>
       <c r="N73" t="n">
         <v>90</v>
@@ -7305,7 +7305,7 @@
         <v>0.71237478</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.70912425</v>
+        <v>0.7058737</v>
       </c>
       <c r="R73" t="n">
         <v>90</v>
@@ -7317,31 +7317,31 @@
         <v>0.87329888</v>
       </c>
       <c r="U73" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V73" t="n">
         <v>90</v>
       </c>
       <c r="W73" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="X73" t="n">
         <v>0.791124153333333</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.9237551</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z73" t="n">
         <v>32</v>
       </c>
       <c r="AA73" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="AB73" t="n">
         <v>78.4</v>
       </c>
       <c r="AC73" t="n">
-        <v>74.2</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="74">
@@ -7370,31 +7370,31 @@
         <v>0.809399373333333</v>
       </c>
       <c r="I74" t="n">
-        <v>0.7941791</v>
+        <v>0.7884559</v>
       </c>
       <c r="J74" t="n">
         <v>7</v>
       </c>
       <c r="K74" t="n">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="L74" t="n">
         <v>0.90744096</v>
       </c>
       <c r="M74" t="n">
-        <v>0.9148555</v>
+        <v>0.9159727</v>
       </c>
       <c r="N74" t="n">
         <v>7</v>
       </c>
       <c r="O74" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="P74" t="n">
         <v>0.92908642</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.94130695</v>
+        <v>0.9428359</v>
       </c>
       <c r="R74" t="n">
         <v>7</v>
@@ -7406,31 +7406,31 @@
         <v>0.87537476</v>
       </c>
       <c r="U74" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V74" t="n">
         <v>1</v>
       </c>
       <c r="W74" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="X74" t="n">
         <v>0.79106726</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.9244114</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z74" t="n">
         <v>35</v>
       </c>
       <c r="AA74" t="n">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="AB74" t="n">
         <v>11.4</v>
       </c>
       <c r="AC74" t="n">
-        <v>23.6</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="75">
@@ -7459,19 +7459,19 @@
         <v>0.784629986666667</v>
       </c>
       <c r="I75" t="n">
-        <v>0.78905575</v>
+        <v>0.7934815</v>
       </c>
       <c r="J75" t="n">
         <v>58</v>
       </c>
       <c r="K75" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
         <v>0.899059613333333</v>
       </c>
       <c r="M75" t="n">
-        <v>0.91348785</v>
+        <v>0.9137621</v>
       </c>
       <c r="N75" t="n">
         <v>58</v>
@@ -7483,43 +7483,43 @@
         <v>0.924776886666667</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.9384486</v>
+        <v>0.9403039</v>
       </c>
       <c r="R75" t="n">
         <v>58</v>
       </c>
       <c r="S75" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T75" t="n">
         <v>0.874967073333333</v>
       </c>
       <c r="U75" t="n">
-        <v>0.93178775</v>
+        <v>0.9320369</v>
       </c>
       <c r="V75" t="n">
         <v>51</v>
       </c>
       <c r="W75" t="n">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="X75" t="n">
         <v>0.791059506666667</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.92428315</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z75" t="n">
         <v>36</v>
       </c>
       <c r="AA75" t="n">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="AB75" t="n">
         <v>52.2</v>
       </c>
       <c r="AC75" t="n">
-        <v>54</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="76">
@@ -7548,7 +7548,7 @@
         <v>0.752205453333333</v>
       </c>
       <c r="I76" t="n">
-        <v>0.7681751</v>
+        <v>0.7841447</v>
       </c>
       <c r="J76" t="n">
         <v>60</v>
@@ -7560,7 +7560,7 @@
         <v>0.871351006666667</v>
       </c>
       <c r="M76" t="n">
-        <v>0.90812815</v>
+        <v>0.9086165</v>
       </c>
       <c r="N76" t="n">
         <v>60</v>
@@ -7572,7 +7572,7 @@
         <v>0.909885713333333</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.9297514</v>
+        <v>0.9319091</v>
       </c>
       <c r="R76" t="n">
         <v>60</v>
@@ -7584,31 +7584,31 @@
         <v>0.874773846666667</v>
       </c>
       <c r="U76" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V76" t="n">
         <v>53</v>
       </c>
       <c r="W76" t="n">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="X76" t="n">
         <v>0.791121693333333</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.92434035</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z76" t="n">
         <v>33</v>
       </c>
       <c r="AA76" t="n">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="AB76" t="n">
         <v>53.2</v>
       </c>
       <c r="AC76" t="n">
-        <v>40.8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77">
@@ -7637,7 +7637,7 @@
         <v>0.72550316</v>
       </c>
       <c r="I77" t="n">
-        <v>0.73944055</v>
+        <v>0.7533779</v>
       </c>
       <c r="J77" t="n">
         <v>62</v>
@@ -7649,7 +7649,7 @@
         <v>0.846597286666667</v>
       </c>
       <c r="M77" t="n">
-        <v>0.8898164</v>
+        <v>0.9021372</v>
       </c>
       <c r="N77" t="n">
         <v>62</v>
@@ -7661,7 +7661,7 @@
         <v>0.883675966666667</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.92378495</v>
+        <v>0.9258708</v>
       </c>
       <c r="R77" t="n">
         <v>61</v>
@@ -7673,31 +7673,31 @@
         <v>0.874712013333333</v>
       </c>
       <c r="U77" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V77" t="n">
         <v>54</v>
       </c>
       <c r="W77" t="n">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="X77" t="n">
         <v>0.79128928</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.9243461</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z77" t="n">
         <v>2</v>
       </c>
       <c r="AA77" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="AB77" t="n">
         <v>48.2</v>
       </c>
       <c r="AC77" t="n">
-        <v>41.6</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="78">
@@ -7726,7 +7726,7 @@
         <v>0.70147584</v>
       </c>
       <c r="I78" t="n">
-        <v>0.6900005</v>
+        <v>0.6785252</v>
       </c>
       <c r="J78" t="n">
         <v>64</v>
@@ -7738,7 +7738,7 @@
         <v>0.828385573333333</v>
       </c>
       <c r="M78" t="n">
-        <v>0.8653176</v>
+        <v>0.8852721</v>
       </c>
       <c r="N78" t="n">
         <v>63</v>
@@ -7750,43 +7750,43 @@
         <v>0.86812174</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.9122151</v>
+        <v>0.9199804</v>
       </c>
       <c r="R78" t="n">
         <v>63</v>
       </c>
       <c r="S78" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T78" t="n">
         <v>0.874558086666667</v>
       </c>
       <c r="U78" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V78" t="n">
         <v>56</v>
       </c>
       <c r="W78" t="n">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="X78" t="n">
         <v>0.79128498</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.9242691</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z78" t="n">
         <v>3</v>
       </c>
       <c r="AA78" t="n">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="AB78" t="n">
         <v>49.8</v>
       </c>
       <c r="AC78" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79">
@@ -7815,67 +7815,67 @@
         <v>0.678630413333333</v>
       </c>
       <c r="I79" t="n">
-        <v>0.65830665</v>
+        <v>0.6431894</v>
       </c>
       <c r="J79" t="n">
         <v>65</v>
       </c>
       <c r="K79" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L79" t="n">
         <v>0.811856993333333</v>
       </c>
       <c r="M79" t="n">
-        <v>0.8420625</v>
+        <v>0.872268</v>
       </c>
       <c r="N79" t="n">
         <v>65</v>
       </c>
       <c r="O79" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P79" t="n">
         <v>0.855888133333333</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.8994449</v>
+        <v>0.9133044</v>
       </c>
       <c r="R79" t="n">
         <v>65</v>
       </c>
       <c r="S79" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T79" t="n">
         <v>0.874446333333333</v>
       </c>
       <c r="U79" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V79" t="n">
         <v>58</v>
       </c>
       <c r="W79" t="n">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="X79" t="n">
         <v>0.791279546666667</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.924192</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z79" t="n">
         <v>4</v>
       </c>
       <c r="AA79" t="n">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="AB79" t="n">
         <v>51.4</v>
       </c>
       <c r="AC79" t="n">
-        <v>45.4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80">
@@ -7904,19 +7904,19 @@
         <v>0.655413866666667</v>
       </c>
       <c r="I80" t="n">
-        <v>0.6440144</v>
+        <v>0.6440034</v>
       </c>
       <c r="J80" t="n">
         <v>67</v>
       </c>
       <c r="K80" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L80" t="n">
         <v>0.792847953333333</v>
       </c>
       <c r="M80" t="n">
-        <v>0.82740595</v>
+        <v>0.8619639</v>
       </c>
       <c r="N80" t="n">
         <v>67</v>
@@ -7928,7 +7928,7 @@
         <v>0.842616993333333</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.88595105</v>
+        <v>0.908012</v>
       </c>
       <c r="R80" t="n">
         <v>67</v>
@@ -7940,31 +7940,31 @@
         <v>0.874312033333333</v>
       </c>
       <c r="U80" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V80" t="n">
         <v>59</v>
       </c>
       <c r="W80" t="n">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="X80" t="n">
         <v>0.791264953333333</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.92416635</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z80" t="n">
         <v>7</v>
       </c>
       <c r="AA80" t="n">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="AB80" t="n">
         <v>53.4</v>
       </c>
       <c r="AC80" t="n">
-        <v>47.2</v>
+        <v>71.4</v>
       </c>
     </row>
     <row r="81">
@@ -7993,7 +7993,7 @@
         <v>0.635541633333333</v>
       </c>
       <c r="I81" t="n">
-        <v>0.6149823</v>
+        <v>0.6068539</v>
       </c>
       <c r="J81" t="n">
         <v>69</v>
@@ -8005,7 +8005,7 @@
         <v>0.773531166666667</v>
       </c>
       <c r="M81" t="n">
-        <v>0.8063732</v>
+        <v>0.8392152</v>
       </c>
       <c r="N81" t="n">
         <v>69</v>
@@ -8017,7 +8017,7 @@
         <v>0.828471926666667</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.87083115</v>
+        <v>0.8963786</v>
       </c>
       <c r="R81" t="n">
         <v>69</v>
@@ -8029,31 +8029,31 @@
         <v>0.874083566666667</v>
       </c>
       <c r="U81" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V81" t="n">
         <v>61</v>
       </c>
       <c r="W81" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="X81" t="n">
         <v>0.791279006666667</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.92408925</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z81" t="n">
         <v>5</v>
       </c>
       <c r="AA81" t="n">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="AB81" t="n">
         <v>54.6</v>
       </c>
       <c r="AC81" t="n">
-        <v>48.6</v>
+        <v>73.4</v>
       </c>
     </row>
     <row r="82">
@@ -8082,7 +8082,7 @@
         <v>0.620308366666667</v>
       </c>
       <c r="I82" t="n">
-        <v>0.5926567</v>
+        <v>0.5793681</v>
       </c>
       <c r="J82" t="n">
         <v>71</v>
@@ -8094,7 +8094,7 @@
         <v>0.756097086666667</v>
       </c>
       <c r="M82" t="n">
-        <v>0.7816531</v>
+        <v>0.8072091</v>
       </c>
       <c r="N82" t="n">
         <v>71</v>
@@ -8106,7 +8106,7 @@
         <v>0.814008773333333</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.85184155</v>
+        <v>0.8799341</v>
       </c>
       <c r="R82" t="n">
         <v>71</v>
@@ -8118,31 +8118,31 @@
         <v>0.87404886</v>
       </c>
       <c r="U82" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V82" t="n">
         <v>62</v>
       </c>
       <c r="W82" t="n">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="X82" t="n">
         <v>0.79126498</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.92403785</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z82" t="n">
         <v>6</v>
       </c>
       <c r="AA82" t="n">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="AB82" t="n">
         <v>56.2</v>
       </c>
       <c r="AC82" t="n">
-        <v>50.2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83">
@@ -8171,7 +8171,7 @@
         <v>0.606017273333333</v>
       </c>
       <c r="I83" t="n">
-        <v>0.56964975</v>
+        <v>0.5589843</v>
       </c>
       <c r="J83" t="n">
         <v>73</v>
@@ -8183,7 +8183,7 @@
         <v>0.739667326666667</v>
       </c>
       <c r="M83" t="n">
-        <v>0.76381255</v>
+        <v>0.7788438</v>
       </c>
       <c r="N83" t="n">
         <v>73</v>
@@ -8195,7 +8195,7 @@
         <v>0.799165213333333</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.8322523</v>
+        <v>0.8653394</v>
       </c>
       <c r="R83" t="n">
         <v>73</v>
@@ -8207,31 +8207,31 @@
         <v>0.87394696</v>
       </c>
       <c r="U83" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V83" t="n">
         <v>70</v>
       </c>
       <c r="W83" t="n">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="X83" t="n">
         <v>0.791252446666667</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.92401215</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z83" t="n">
         <v>10</v>
       </c>
       <c r="AA83" t="n">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="AB83" t="n">
         <v>59.8</v>
       </c>
       <c r="AC83" t="n">
-        <v>52</v>
+        <v>76.6</v>
       </c>
     </row>
     <row r="84">
@@ -8260,7 +8260,7 @@
         <v>0.59409074</v>
       </c>
       <c r="I84" t="n">
-        <v>0.5537818</v>
+        <v>0.5471076</v>
       </c>
       <c r="J84" t="n">
         <v>75</v>
@@ -8272,7 +8272,7 @@
         <v>0.723158306666667</v>
       </c>
       <c r="M84" t="n">
-        <v>0.73871305</v>
+        <v>0.739575</v>
       </c>
       <c r="N84" t="n">
         <v>75</v>
@@ -8284,7 +8284,7 @@
         <v>0.784734346666667</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.81651995</v>
+        <v>0.844278</v>
       </c>
       <c r="R84" t="n">
         <v>75</v>
@@ -8296,31 +8296,31 @@
         <v>0.873903846666667</v>
       </c>
       <c r="U84" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V84" t="n">
         <v>72</v>
       </c>
       <c r="W84" t="n">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="X84" t="n">
         <v>0.791244426666667</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.92398645</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z84" t="n">
         <v>11</v>
       </c>
       <c r="AA84" t="n">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="AB84" t="n">
         <v>61.6</v>
       </c>
       <c r="AC84" t="n">
-        <v>53.6</v>
+        <v>78.2</v>
       </c>
     </row>
     <row r="85">
@@ -8349,7 +8349,7 @@
         <v>0.58462122</v>
       </c>
       <c r="I85" t="n">
-        <v>0.54431065</v>
+        <v>0.5390651</v>
       </c>
       <c r="J85" t="n">
         <v>77</v>
@@ -8361,7 +8361,7 @@
         <v>0.7074879</v>
       </c>
       <c r="M85" t="n">
-        <v>0.70340995</v>
+        <v>0.699332</v>
       </c>
       <c r="N85" t="n">
         <v>77</v>
@@ -8373,7 +8373,7 @@
         <v>0.770355446666667</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.80580165</v>
+        <v>0.8234394</v>
       </c>
       <c r="R85" t="n">
         <v>77</v>
@@ -8385,31 +8385,31 @@
         <v>0.873801753333333</v>
       </c>
       <c r="U85" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V85" t="n">
         <v>74</v>
       </c>
       <c r="W85" t="n">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="X85" t="n">
         <v>0.791230813333333</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.92396075</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z85" t="n">
         <v>12</v>
       </c>
       <c r="AA85" t="n">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="AB85" t="n">
         <v>63.4</v>
       </c>
       <c r="AC85" t="n">
-        <v>55.4</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="86">
@@ -8438,19 +8438,19 @@
         <v>0.57941702</v>
       </c>
       <c r="I86" t="n">
-        <v>0.53938315</v>
+        <v>0.5366239</v>
       </c>
       <c r="J86" t="n">
         <v>79</v>
       </c>
       <c r="K86" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L86" t="n">
         <v>0.698864126666667</v>
       </c>
       <c r="M86" t="n">
-        <v>0.69287</v>
+        <v>0.6868759</v>
       </c>
       <c r="N86" t="n">
         <v>79</v>
@@ -8462,7 +8462,7 @@
         <v>0.762365826666667</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.79764485</v>
+        <v>0.8075001</v>
       </c>
       <c r="R86" t="n">
         <v>79</v>
@@ -8474,31 +8474,31 @@
         <v>0.873801753333333</v>
       </c>
       <c r="U86" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V86" t="n">
         <v>75</v>
       </c>
       <c r="W86" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="X86" t="n">
         <v>0.791230813333333</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.92396075</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z86" t="n">
         <v>13</v>
       </c>
       <c r="AA86" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="AB86" t="n">
         <v>65</v>
       </c>
       <c r="AC86" t="n">
-        <v>56.8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87">
@@ -8527,7 +8527,7 @@
         <v>0.57416188</v>
       </c>
       <c r="I87" t="n">
-        <v>0.535731</v>
+        <v>0.5336795</v>
       </c>
       <c r="J87" t="n">
         <v>81</v>
@@ -8539,7 +8539,7 @@
         <v>0.69110586</v>
       </c>
       <c r="M87" t="n">
-        <v>0.68147875</v>
+        <v>0.6718516</v>
       </c>
       <c r="N87" t="n">
         <v>80</v>
@@ -8551,7 +8551,7 @@
         <v>0.75510004</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.7880045</v>
+        <v>0.7881353</v>
       </c>
       <c r="R87" t="n">
         <v>80</v>
@@ -8563,31 +8563,31 @@
         <v>0.87373412</v>
       </c>
       <c r="U87" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V87" t="n">
         <v>76</v>
       </c>
       <c r="W87" t="n">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="X87" t="n">
         <v>0.791223033333333</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.92390935</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z87" t="n">
         <v>15</v>
       </c>
       <c r="AA87" t="n">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="AB87" t="n">
         <v>66.4</v>
       </c>
       <c r="AC87" t="n">
-        <v>58.2</v>
+        <v>82.4</v>
       </c>
     </row>
     <row r="88">
@@ -8616,7 +8616,7 @@
         <v>0.568048793333333</v>
       </c>
       <c r="I88" t="n">
-        <v>0.53270435</v>
+        <v>0.5314988</v>
       </c>
       <c r="J88" t="n">
         <v>83</v>
@@ -8628,7 +8628,7 @@
         <v>0.683966386666667</v>
       </c>
       <c r="M88" t="n">
-        <v>0.6668762</v>
+        <v>0.6607248</v>
       </c>
       <c r="N88" t="n">
         <v>82</v>
@@ -8640,7 +8640,7 @@
         <v>0.748004046666667</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.7779299</v>
+        <v>0.7867686</v>
       </c>
       <c r="R88" t="n">
         <v>82</v>
@@ -8652,31 +8652,31 @@
         <v>0.873708906666667</v>
       </c>
       <c r="U88" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V88" t="n">
         <v>77</v>
       </c>
       <c r="W88" t="n">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="X88" t="n">
         <v>0.791222026666667</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.92390935</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z88" t="n">
         <v>16</v>
       </c>
       <c r="AA88" t="n">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="AB88" t="n">
         <v>68</v>
       </c>
       <c r="AC88" t="n">
-        <v>59.8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89">
@@ -8705,7 +8705,7 @@
         <v>0.561404673333333</v>
       </c>
       <c r="I89" t="n">
-        <v>0.52931865</v>
+        <v>0.5284544</v>
       </c>
       <c r="J89" t="n">
         <v>85</v>
@@ -8717,7 +8717,7 @@
         <v>0.676430733333333</v>
       </c>
       <c r="M89" t="n">
-        <v>0.6496003</v>
+        <v>0.6451906</v>
       </c>
       <c r="N89" t="n">
         <v>84</v>
@@ -8729,7 +8729,7 @@
         <v>0.740322413333333</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.76277545</v>
+        <v>0.777962</v>
       </c>
       <c r="R89" t="n">
         <v>84</v>
@@ -8741,31 +8741,31 @@
         <v>0.873708906666667</v>
       </c>
       <c r="U89" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V89" t="n">
         <v>78</v>
       </c>
       <c r="W89" t="n">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="X89" t="n">
         <v>0.791222026666667</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.92390935</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z89" t="n">
         <v>17</v>
       </c>
       <c r="AA89" t="n">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="AB89" t="n">
         <v>69.6</v>
       </c>
       <c r="AC89" t="n">
-        <v>61.4</v>
+        <v>85.6</v>
       </c>
     </row>
     <row r="90">
@@ -8794,7 +8794,7 @@
         <v>0.55558694</v>
       </c>
       <c r="I90" t="n">
-        <v>0.52591675</v>
+        <v>0.5246345</v>
       </c>
       <c r="J90" t="n">
         <v>87</v>
@@ -8806,7 +8806,7 @@
         <v>0.668094493333333</v>
       </c>
       <c r="M90" t="n">
-        <v>0.63224165</v>
+        <v>0.6256989</v>
       </c>
       <c r="N90" t="n">
         <v>86</v>
@@ -8818,7 +8818,7 @@
         <v>0.730783706666667</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.741569</v>
+        <v>0.7523543</v>
       </c>
       <c r="R90" t="n">
         <v>86</v>
@@ -8830,31 +8830,31 @@
         <v>0.873655593333333</v>
       </c>
       <c r="U90" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V90" t="n">
         <v>80</v>
       </c>
       <c r="W90" t="n">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="X90" t="n">
         <v>0.79119504</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.92388365</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z90" t="n">
         <v>21</v>
       </c>
       <c r="AA90" t="n">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="AB90" t="n">
         <v>72</v>
       </c>
       <c r="AC90" t="n">
-        <v>63</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="91">
@@ -8883,7 +8883,7 @@
         <v>0.550827553333333</v>
       </c>
       <c r="I91" t="n">
-        <v>0.52353265</v>
+        <v>0.5226894</v>
       </c>
       <c r="J91" t="n">
         <v>88</v>
@@ -8895,7 +8895,7 @@
         <v>0.66204402</v>
       </c>
       <c r="M91" t="n">
-        <v>0.62007685</v>
+        <v>0.615774</v>
       </c>
       <c r="N91" t="n">
         <v>88</v>
@@ -8907,7 +8907,7 @@
         <v>0.72372628</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.72996735</v>
+        <v>0.7362084</v>
       </c>
       <c r="R91" t="n">
         <v>88</v>
@@ -8919,31 +8919,31 @@
         <v>0.87361324</v>
       </c>
       <c r="U91" t="n">
-        <v>0.9318783</v>
+        <v>0.9320369</v>
       </c>
       <c r="V91" t="n">
         <v>81</v>
       </c>
       <c r="W91" t="n">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="X91" t="n">
         <v>0.79118702</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.92385795</v>
+        <v>0.9293527</v>
       </c>
       <c r="Z91" t="n">
         <v>22</v>
       </c>
       <c r="AA91" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="AB91" t="n">
         <v>73.4</v>
       </c>
       <c r="AC91" t="n">
-        <v>64.6</v>
+        <v>88.8</v>
       </c>
     </row>
   </sheetData>
